--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>杜荣</t>
+  </si>
+  <si>
+    <t>卤鸡爪 ￥19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空心菜 ￥3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -338,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,6 +377,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,45 +435,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,24 +761,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="M2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -779,12 +790,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -808,31 +819,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>42590</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="20">
         <v>6.2</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="20">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -840,27 +851,27 @@
       </c>
       <c r="O4" s="4">
         <f>SUMPRODUCT((I4:I76="杜荣")*K4:K76)</f>
-        <v>53.5</v>
+        <v>76</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-12.666666666666664</v>
+        <v>-27.666666666666664</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="20"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -870,21 +881,21 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>-28.166666666666664</v>
+        <v>-20.666666666666664</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="20"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -894,1201 +905,1016 @@
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>40.833333333333336</v>
+        <v>48.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>42591</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="22">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="20">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="16">
+      <c r="O7" s="30">
         <f>AVERAGE(O4:O6)</f>
-        <v>40.833333333333336</v>
-      </c>
-      <c r="P7" s="17"/>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="22"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="20"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="14">
+      <c r="O8" s="28">
         <f>SUM(O4:O6)</f>
-        <v>122.5</v>
-      </c>
-      <c r="P8" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="18" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="22"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="20"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="22"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="20"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
+      <c r="B11" s="21">
         <v>42592</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="24" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="20">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="22"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="18" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="22"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="21">
         <v>42593</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="22">
         <v>4</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="20">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="23">
+      <c r="B17" s="21">
         <v>42594</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <v>5</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="23">
+      <c r="B20" s="21">
         <v>42595</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="22">
         <v>6</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>42596</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="22">
         <v>7</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>42597</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="22">
         <v>8</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>42598</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="22">
         <v>9</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>42599</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="22">
         <v>10</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>42600</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="22">
         <v>11</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="23">
+      <c r="B38" s="21">
         <v>42601</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="22">
         <v>12</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="23"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="22"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="23"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="22"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>42602</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="22">
         <v>13</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="23"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="22"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="22"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>42603</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="22">
         <v>14</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="22"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>42604</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="22">
         <v>15</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="23"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="22"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="22"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>42605</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="22">
         <v>16</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="23"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="22"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="22"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="23">
+      <c r="B53" s="21">
         <v>42606</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="22">
         <v>17</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="23"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="22"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="23"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="22"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="23">
+      <c r="B56" s="21">
         <v>42607</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="22">
         <v>18</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="23"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="22"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="23"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="22"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="23">
+      <c r="B59" s="21">
         <v>42608</v>
       </c>
-      <c r="C59" s="21">
+      <c r="C59" s="22">
         <v>19</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="23"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="22"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="23"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="22"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="23">
+      <c r="B62" s="21">
         <v>42609</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="22">
         <v>20</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="23"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="22"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="23"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="22"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="23">
+      <c r="B65" s="21">
         <v>42610</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="22">
         <v>21</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="23"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="22"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="23"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="22"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="23">
+      <c r="B68" s="21">
         <v>42611</v>
       </c>
-      <c r="C68" s="21">
+      <c r="C68" s="22">
         <v>22</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="23"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="22"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="23"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="22"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="23">
+      <c r="B71" s="21">
         <v>42612</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="22">
         <v>23</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="23"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="22"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="23"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="22"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="23">
+      <c r="B74" s="21">
         <v>42613</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="22">
         <v>24</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="23"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="22"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="23"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="22"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="223">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
+  <mergeCells count="222">
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O7:P7"/>
@@ -2113,6 +1939,204 @@
     <mergeCell ref="J65:J67"/>
     <mergeCell ref="K65:K67"/>
     <mergeCell ref="B62:B64"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>凉菜  ￥12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蓝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基围虾  ￥25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,19 +497,85 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -510,72 +588,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -884,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -902,24 +914,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="M2" s="42" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="M2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -931,12 +943,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -960,25 +972,25 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+      <c r="B4" s="39">
         <v>42590</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="29">
@@ -992,25 +1004,25 @@
       </c>
       <c r="O4" s="4">
         <f>SUMPRODUCT((I4:I84="杜荣")*K4:K84)</f>
-        <v>360.90000000000003</v>
+        <v>397.40000000000003</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-190.93333333333337</v>
+        <v>-215.26666666666668</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="3" t="s">
@@ -1022,19 +1034,19 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>20.966666666666669</v>
+        <v>33.133333333333354</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="3" t="s">
@@ -1046,29 +1058,29 @@
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>169.96666666666667</v>
+        <v>182.13333333333335</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="17">
+      <c r="B7" s="39">
         <v>42591</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="40">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="19" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="29">
@@ -1078,49 +1090,49 @@
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="46">
+      <c r="O7" s="34">
         <f>AVERAGE(O4:O6)</f>
-        <v>169.96666666666667</v>
-      </c>
-      <c r="P7" s="47"/>
+        <v>182.13333333333335</v>
+      </c>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="29"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="44">
+      <c r="O8" s="32">
         <f>SUM(O4:O6)</f>
-        <v>509.90000000000003</v>
-      </c>
-      <c r="P8" s="45"/>
+        <v>546.40000000000009</v>
+      </c>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="29"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
@@ -1128,42 +1140,42 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="29"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="39">
         <v>42592</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="40">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="19" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="29">
@@ -1171,55 +1183,55 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="29"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="17">
+      <c r="B14" s="39">
         <v>42593</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="40">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="19" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="29">
@@ -1227,101 +1239,101 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="17">
+      <c r="B17" s="39">
         <v>42594</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="40">
         <v>5</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="19" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="41">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="34"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="35"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1333,61 +1345,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="17">
+      <c r="B21" s="39">
         <v>42595</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="40">
         <v>6</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="36">
+      <c r="B24" s="20">
         <v>42596</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="23">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="15" t="s">
         <v>32</v>
       </c>
@@ -1399,21 +1411,21 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="19" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="29">
@@ -1421,123 +1433,123 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="30" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="30" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="30" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="30" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="29"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="30" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="29"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="26" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="29"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="26" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="17">
+      <c r="B33" s="39">
         <v>42597</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="40">
         <v>8</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="19" t="s">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="29">
@@ -1545,51 +1557,51 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="26" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="29"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="29"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="17">
+      <c r="B36" s="39">
         <v>42598</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="40">
         <v>9</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="19" t="s">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K36" s="29">
@@ -1597,650 +1609,872 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="26" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="29"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="26" t="s">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="29"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="26" t="s">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
       <c r="K39" s="29"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="17">
+      <c r="B40" s="39">
         <v>42599</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="40">
         <v>10</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="29"/>
+      <c r="D40" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="29">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="29"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="17">
+      <c r="B43" s="39">
         <v>42600</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="40">
         <v>11</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
       <c r="K43" s="29"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="29"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="17">
+      <c r="B46" s="39">
         <v>42601</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="40">
         <v>12</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="29"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
       <c r="K47" s="29"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="17"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="29"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="17">
+      <c r="B49" s="39">
         <v>42602</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="40">
         <v>13</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="29"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="29"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="17">
+      <c r="B52" s="39">
         <v>42603</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="40">
         <v>14</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="29"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="29"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="29"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="17">
+      <c r="B55" s="39">
         <v>42604</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="40">
         <v>15</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="29"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="29"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="17">
+      <c r="B58" s="39">
         <v>42605</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="40">
         <v>16</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="29"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="29"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="17">
+      <c r="B61" s="39">
         <v>42606</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="40">
         <v>17</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="29"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
       <c r="K62" s="29"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
       <c r="K63" s="29"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="17">
+      <c r="B64" s="39">
         <v>42607</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="40">
         <v>18</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="29"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
       <c r="K65" s="29"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
       <c r="K66" s="29"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="17">
+      <c r="B67" s="39">
         <v>42608</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="40">
         <v>19</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="29"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
       <c r="K68" s="29"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
       <c r="K69" s="29"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="17">
+      <c r="B70" s="39">
         <v>42609</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="40">
         <v>20</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
       <c r="K70" s="29"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="29"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="17">
+      <c r="B73" s="39">
         <v>42610</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="40">
         <v>21</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
       <c r="K73" s="29"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
       <c r="K74" s="29"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
       <c r="K75" s="29"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="17">
+      <c r="B76" s="39">
         <v>42611</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="40">
         <v>22</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
       <c r="K76" s="29"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
       <c r="K77" s="29"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="29"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="17">
+      <c r="B79" s="39">
         <v>42612</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="40">
         <v>23</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
       <c r="K79" s="29"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
       <c r="K80" s="29"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
       <c r="K81" s="29"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="17">
+      <c r="B82" s="39">
         <v>42613</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="40">
         <v>24</v>
       </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
       <c r="K82" s="29"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
       <c r="K83" s="29"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
       <c r="K84" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="230">
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="B24:B32"/>
     <mergeCell ref="C24:C32"/>
@@ -2265,212 +2499,6 @@
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="J25:J32"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -2483,7 +2511,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J17 J20:J25 J33:J84">
       <formula1>"现金,支付宝,微信,银行卡,信用卡"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D33:D84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D33:D40 D42:D84">
       <formula1>"蔬菜,肉类,日用品,电器,药物,零食,超市,水费,电费,燃气费,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="8月开支" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,22 @@
   </si>
   <si>
     <t>基围虾  ￥25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卤鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧尚购物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,6 +513,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -506,6 +549,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,15 +579,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -533,9 +588,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,42 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -650,7 +666,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,7 +701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -896,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:K42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,24 +930,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="M2" s="30" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="M2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -943,12 +959,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -972,25 +988,25 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="39">
+      <c r="B4" s="19">
         <v>42590</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="20">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="23" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="29">
@@ -1008,21 +1024,21 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-215.26666666666668</v>
+        <v>-131.93333333333334</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="3" t="s">
@@ -1030,23 +1046,23 @@
       </c>
       <c r="O5" s="4">
         <f>SUMPRODUCT((I4:I84="黄亮")*K4:K84)</f>
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>33.133333333333354</v>
+        <v>-133.5333333333333</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="3" t="s">
@@ -1058,29 +1074,29 @@
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>182.13333333333335</v>
+        <v>265.4666666666667</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="39">
+      <c r="B7" s="19">
         <v>42591</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="20">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="29">
@@ -1090,49 +1106,49 @@
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="34">
+      <c r="O7" s="46">
         <f>AVERAGE(O4:O6)</f>
-        <v>182.13333333333335</v>
-      </c>
-      <c r="P7" s="35"/>
+        <v>265.4666666666667</v>
+      </c>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="29"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="32">
+      <c r="O8" s="44">
         <f>SUM(O4:O6)</f>
-        <v>546.40000000000009</v>
-      </c>
-      <c r="P8" s="33"/>
+        <v>796.40000000000009</v>
+      </c>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
       <c r="K9" s="29"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
@@ -1140,42 +1156,42 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="29"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="39">
+      <c r="B11" s="19">
         <v>42592</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="20">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="23" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="29">
@@ -1183,55 +1199,55 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="29"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="39">
+      <c r="B14" s="19">
         <v>42593</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="20">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="23" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="29">
@@ -1239,101 +1255,101 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="39">
+      <c r="B17" s="19">
         <v>42594</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="20">
         <v>5</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="23" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="33">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="17" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="42"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="43"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1345,61 +1361,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="39">
+      <c r="B21" s="19">
         <v>42595</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="20">
         <v>6</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="20">
+      <c r="B24" s="36">
         <v>42596</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="17">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="15" t="s">
         <v>32</v>
       </c>
@@ -1411,21 +1427,21 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="17" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="29">
@@ -1433,123 +1449,123 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="36" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="36" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="36" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="36" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="29"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="36" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="29"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="17" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="29"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="17" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="39">
+      <c r="B33" s="19">
         <v>42597</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="20">
         <v>8</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="23" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="29">
@@ -1557,51 +1573,51 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="17" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="29"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="29"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="39">
+      <c r="B36" s="19">
         <v>42598</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="20">
         <v>9</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="23" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K36" s="29">
@@ -1609,67 +1625,67 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="17" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="29"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="17" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="29"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="17" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="29"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="39">
+      <c r="B40" s="19">
         <v>42599</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="20">
         <v>10</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="23" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="17" t="s">
         <v>12</v>
       </c>
       <c r="K40" s="29">
@@ -1677,598 +1693,828 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="17" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="29"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="39">
+      <c r="B43" s="19">
         <v>42600</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="20">
         <v>11</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="29"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="29">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="29"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="39">
+      <c r="B46" s="19">
         <v>42601</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="20">
         <v>12</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="29"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="29">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
       <c r="K47" s="29"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="29"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="39">
+      <c r="B49" s="19">
         <v>42602</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="20">
         <v>13</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="29"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="29">
+        <v>166</v>
+      </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
       <c r="K50" s="29"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="39">
+      <c r="B52" s="19">
         <v>42603</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="20">
         <v>14</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="29"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
       <c r="K53" s="29"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="29"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="39">
+      <c r="B55" s="19">
         <v>42604</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="20">
         <v>15</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
       <c r="K56" s="29"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="29"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="39">
+      <c r="B58" s="19">
         <v>42605</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="20">
         <v>16</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="29"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="29"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="39">
+      <c r="B61" s="19">
         <v>42606</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="20">
         <v>17</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="29"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
       <c r="K62" s="29"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="29"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="39">
+      <c r="B64" s="19">
         <v>42607</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="20">
         <v>18</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="29"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
       <c r="K65" s="29"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
       <c r="K66" s="29"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="39">
+      <c r="B67" s="19">
         <v>42608</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="20">
         <v>19</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="29"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="39"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="29"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="39"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="29"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="39">
+      <c r="B70" s="19">
         <v>42609</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="20">
         <v>20</v>
       </c>
-      <c r="D70" s="40"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="29"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="39"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
       <c r="K71" s="29"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="39"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="39">
+      <c r="B73" s="19">
         <v>42610</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="20">
         <v>21</v>
       </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
       <c r="K73" s="29"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="39"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
       <c r="K74" s="29"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="39"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
       <c r="K75" s="29"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="39">
+      <c r="B76" s="19">
         <v>42611</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="20">
         <v>22</v>
       </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="29"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="39"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="29"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="39"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
       <c r="K78" s="29"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="39">
+      <c r="B79" s="19">
         <v>42612</v>
       </c>
-      <c r="C79" s="40">
+      <c r="C79" s="20">
         <v>23</v>
       </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
       <c r="K79" s="29"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="39"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
       <c r="K80" s="29"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="39"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
       <c r="K81" s="29"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="39">
+      <c r="B82" s="19">
         <v>42613</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="20">
         <v>24</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
       <c r="K82" s="29"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="39"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
       <c r="K83" s="29"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="39"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
       <c r="K84" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="230">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -2293,212 +2539,6 @@
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="8月开支" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,25 @@
   </si>
   <si>
     <t>欧尚购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+  </si>
+  <si>
+    <t>6~8.15电费单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋  ￥15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦瓜、西蓝花、洋葱、胡萝卜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,20 +532,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,27 +619,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,41 +628,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +649,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -666,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -701,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,24 +955,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="M2" s="42" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="M2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -959,12 +984,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -988,25 +1013,25 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
+      <c r="B4" s="31">
         <v>42590</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="32">
         <v>1</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="17" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="29">
@@ -1020,25 +1045,25 @@
       </c>
       <c r="O4" s="4">
         <f>SUMPRODUCT((I4:I84="杜荣")*K4:K84)</f>
-        <v>397.40000000000003</v>
+        <v>412.90000000000003</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-131.93333333333334</v>
+        <v>-128.26666666666665</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="3" t="s">
@@ -1046,23 +1071,23 @@
       </c>
       <c r="O5" s="4">
         <f>SUMPRODUCT((I4:I84="黄亮")*K4:K84)</f>
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>-133.5333333333333</v>
+        <v>-156.36666666666662</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="29"/>
       <c r="M6" s="29"/>
       <c r="N6" s="3" t="s">
@@ -1074,29 +1099,29 @@
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>265.4666666666667</v>
+        <v>284.63333333333338</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+      <c r="B7" s="31">
         <v>42591</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="32">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="17" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="29">
@@ -1106,49 +1131,49 @@
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="46">
+      <c r="O7" s="22">
         <f>AVERAGE(O4:O6)</f>
-        <v>265.4666666666667</v>
-      </c>
-      <c r="P7" s="47"/>
+        <v>284.63333333333338</v>
+      </c>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="29"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="44">
+      <c r="O8" s="20">
         <f>SUM(O4:O6)</f>
-        <v>796.40000000000009</v>
-      </c>
-      <c r="P8" s="45"/>
+        <v>853.90000000000009</v>
+      </c>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="29"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
@@ -1156,42 +1181,42 @@
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="29"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="19">
+      <c r="B11" s="31">
         <v>42592</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="32">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="17" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="29">
@@ -1199,55 +1224,55 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="29"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="29"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
+      <c r="B14" s="31">
         <v>42593</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="32">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="29">
@@ -1255,101 +1280,101 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
       <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="19">
+      <c r="B17" s="31">
         <v>42594</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="32">
         <v>5</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="17" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="46">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="34"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="35"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1361,50 +1386,50 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="19">
+      <c r="B21" s="31">
         <v>42595</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="32">
         <v>6</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="29"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="29"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="36">
         <v>42596</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="27">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -1417,7 +1442,7 @@
       <c r="G24" s="40"/>
       <c r="H24" s="41"/>
       <c r="I24" s="15" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>41</v>
@@ -1428,20 +1453,20 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="37"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="17" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="27" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="29">
@@ -1450,122 +1475,122 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="37"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="30" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="37"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="30" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="37"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="30" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="37"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="30" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="29"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="37"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="30" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="29"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="37"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="26" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="29"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="26" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="19">
+      <c r="B33" s="31">
         <v>42597</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="32">
         <v>8</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="17" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="29">
@@ -1573,51 +1598,51 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="26" t="s">
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="29"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
       <c r="K35" s="29"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="19">
+      <c r="B36" s="31">
         <v>42598</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="32">
         <v>9</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="17" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K36" s="29">
@@ -1625,67 +1650,67 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="26" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="29"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="26" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="29"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="26" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="29"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="19">
+      <c r="B40" s="31">
         <v>42599</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="32">
         <v>10</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="17" t="s">
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K40" s="29">
@@ -1693,53 +1718,53 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="26" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="29"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="19">
+      <c r="B43" s="31">
         <v>42600</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="32">
         <v>11</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="26" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="17" t="s">
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K43" s="29">
@@ -1747,47 +1772,47 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="29"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="19">
+      <c r="B46" s="31">
         <v>42601</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="32">
         <v>12</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="26" t="s">
+      <c r="D46" s="32"/>
+      <c r="E46" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="17" t="s">
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K46" s="29">
@@ -1795,47 +1820,47 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="29"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="29"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="19">
+      <c r="B49" s="31">
         <v>42602</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="32">
         <v>13</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="26" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="17" t="s">
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K49" s="29">
@@ -1843,522 +1868,654 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="29"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="19">
+      <c r="B52" s="31">
         <v>42603</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="32">
         <v>14</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="29"/>
+      <c r="D52" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="49">
+        <v>27</v>
+      </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="29"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="49">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="29"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="49">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="19">
+      <c r="B55" s="31">
         <v>42604</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="32">
         <v>15</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
       <c r="K56" s="29"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="29"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="19">
+      <c r="B58" s="31">
         <v>42605</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="32">
         <v>16</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="29"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
       <c r="K59" s="29"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="19">
+      <c r="B61" s="31">
         <v>42606</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="32">
         <v>17</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
       <c r="K61" s="29"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
       <c r="K62" s="29"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="29"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="19">
+      <c r="B64" s="31">
         <v>42607</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="32">
         <v>18</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
       <c r="K64" s="29"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
       <c r="K65" s="29"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
       <c r="K66" s="29"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="19">
+      <c r="B67" s="31">
         <v>42608</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="32">
         <v>19</v>
       </c>
-      <c r="D67" s="20"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="29"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
       <c r="K68" s="29"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
       <c r="K69" s="29"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="19">
+      <c r="B70" s="31">
         <v>42609</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="32">
         <v>20</v>
       </c>
-      <c r="D70" s="20"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="29"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="29"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="19">
+      <c r="B73" s="31">
         <v>42610</v>
       </c>
-      <c r="C73" s="20">
+      <c r="C73" s="32">
         <v>21</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="29"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
       <c r="K74" s="29"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="29"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="19">
+      <c r="B76" s="31">
         <v>42611</v>
       </c>
-      <c r="C76" s="20">
+      <c r="C76" s="32">
         <v>22</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
       <c r="K76" s="29"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
       <c r="K77" s="29"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
       <c r="K78" s="29"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="19">
+      <c r="B79" s="31">
         <v>42612</v>
       </c>
-      <c r="C79" s="20">
+      <c r="C79" s="32">
         <v>23</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
       <c r="K79" s="29"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
       <c r="K80" s="29"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
       <c r="K81" s="29"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="19">
+      <c r="B82" s="31">
         <v>42613</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="32">
         <v>24</v>
       </c>
-      <c r="D82" s="20"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
       <c r="K82" s="29"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
       <c r="K83" s="29"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
       <c r="K84" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="230">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
+  <mergeCells count="226">
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="D76:D78"/>
@@ -2383,162 +2540,56 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="8月开支" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,22 +274,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杜荣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水费</t>
-  </si>
-  <si>
-    <t>6~8.15电费单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡蛋  ￥15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苦瓜、西蓝花、洋葱、胡萝卜</t>
+    <t>盐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买菜 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两条鲫鱼 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点青菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,54 +553,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -607,6 +625,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,18 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -691,7 +706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,7 +741,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,24 +970,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="M2" s="18" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -984,12 +999,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1013,31 +1028,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>42590</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="28">
         <v>6.2</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1045,336 +1060,336 @@
       </c>
       <c r="O4" s="4">
         <f>SUMPRODUCT((I4:I84="杜荣")*K4:K84)</f>
-        <v>412.90000000000003</v>
+        <v>410.3</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-128.26666666666665</v>
+        <v>-80.200000000000045</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="28"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="4">
         <f>SUMPRODUCT((I4:I84="黄亮")*K4:K84)</f>
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>-156.36666666666662</v>
+        <v>-115.90000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="28"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="4">
         <f>SUMPRODUCT((I4:I84="邹逍")*K4:K84)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>284.63333333333338</v>
+        <v>196.09999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>42591</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="28">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="22">
+      <c r="O7" s="21">
         <f>AVERAGE(O4:O6)</f>
-        <v>284.63333333333338</v>
-      </c>
-      <c r="P7" s="23"/>
+        <v>330.09999999999997</v>
+      </c>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <f>SUM(O4:O6)</f>
-        <v>853.90000000000009</v>
-      </c>
-      <c r="P8" s="21"/>
+        <v>990.3</v>
+      </c>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="29"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="28"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>42592</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="29"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>42593</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="29"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>42594</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>5</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="41">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="24" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="47"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="48"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1386,63 +1401,63 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <v>42595</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>6</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="29"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="28"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>42596</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="15" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>41</v>
@@ -1452,918 +1467,942 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="27" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="28">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="33" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="29"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="33" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="29"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="28"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="33" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="29"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="29"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="28"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="33" t="s">
+      <c r="B30" s="36"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="29"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="24" t="s">
+      <c r="B31" s="36"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="29"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="28"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="24" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="31">
+      <c r="B33" s="30">
         <v>42597</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>8</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27" t="s">
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="27" t="s">
+      <c r="J33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="24" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="29"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="28"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="31">
+      <c r="B36" s="30">
         <v>42598</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <v>9</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27" t="s">
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="27" t="s">
+      <c r="J36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="28">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="24" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="28"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="24" t="s">
+      <c r="B38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="29"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="28"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="24" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>42599</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <v>10</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27" t="s">
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="28">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="24" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="29"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="28"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="28"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="31">
+      <c r="B43" s="30">
         <v>42600</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="31">
         <v>11</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27" t="s">
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="28">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="28"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="31">
+      <c r="B46" s="30">
         <v>42601</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="31">
         <v>12</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="24" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27" t="s">
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J46" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="28"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="28"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="31">
+      <c r="B49" s="30">
         <v>42602</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="31">
         <v>13</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27" t="s">
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="27" t="s">
+      <c r="J49" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="28">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="28"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="31">
+      <c r="B52" s="30">
         <v>42603</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="31">
         <v>14</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="28"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="17" t="s">
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="28"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="30">
+        <v>42604</v>
+      </c>
+      <c r="C55" s="31">
         <v>15</v>
       </c>
-      <c r="J52" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K52" s="49">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="17" t="s">
+      <c r="D55" s="31"/>
+      <c r="E55" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="28"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="30">
+        <v>42605</v>
+      </c>
+      <c r="C58" s="31">
+        <v>16</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="28"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="30">
+        <v>42606</v>
+      </c>
+      <c r="C61" s="31">
+        <v>17</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="28"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="30">
+        <v>42607</v>
+      </c>
+      <c r="C64" s="31">
+        <v>18</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="28"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="30"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="30">
+        <v>42608</v>
+      </c>
+      <c r="C67" s="31">
+        <v>19</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="28"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="28"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="30">
+        <v>42609</v>
+      </c>
+      <c r="C70" s="31">
         <v>20</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53" s="17" t="s">
+      <c r="D70" s="31"/>
+      <c r="E70" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K53" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="17" t="s">
+      <c r="K70" s="28">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="28"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="28"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="30">
+        <v>42610</v>
+      </c>
+      <c r="C73" s="31">
+        <v>21</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="28"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="28"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="28"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="30">
+        <v>42611</v>
+      </c>
+      <c r="C76" s="31">
+        <v>22</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="28"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="30"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="28"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="28"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="30">
+        <v>42612</v>
+      </c>
+      <c r="C79" s="31">
+        <v>23</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="28"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="28"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="30"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="28"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="30">
+        <v>42613</v>
+      </c>
+      <c r="C82" s="31">
         <v>24</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K54" s="49">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="31">
-        <v>42604</v>
-      </c>
-      <c r="C55" s="32">
-        <v>15</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="29"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="29"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="29"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="31">
-        <v>42605</v>
-      </c>
-      <c r="C58" s="32">
-        <v>16</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="29"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="29"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="29"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="31">
-        <v>42606</v>
-      </c>
-      <c r="C61" s="32">
-        <v>17</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="29"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="29"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="31">
-        <v>42607</v>
-      </c>
-      <c r="C64" s="32">
-        <v>18</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="29"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="29"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="29"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="31">
-        <v>42608</v>
-      </c>
-      <c r="C67" s="32">
-        <v>19</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="29"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="29"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="29"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="31">
-        <v>42609</v>
-      </c>
-      <c r="C70" s="32">
-        <v>20</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="29"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="31"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="29"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="29"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="31">
-        <v>42610</v>
-      </c>
-      <c r="C73" s="32">
-        <v>21</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="29"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="29"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="29"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="31">
-        <v>42611</v>
-      </c>
-      <c r="C76" s="32">
-        <v>22</v>
-      </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="29"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="29"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="29"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="31">
-        <v>42612</v>
-      </c>
-      <c r="C79" s="32">
-        <v>23</v>
-      </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="29"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="31"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="29"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="31"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="29"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="31">
-        <v>42613</v>
-      </c>
-      <c r="C82" s="32">
-        <v>24</v>
-      </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="29"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="28"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="31"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="29"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="28"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="29"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="28"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="226">
+  <mergeCells count="230">
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="I33:I35"/>
     <mergeCell ref="J33:J35"/>
@@ -2482,6 +2521,7 @@
     <mergeCell ref="J46:J48"/>
     <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E54:H54"/>
     <mergeCell ref="B55:B57"/>
@@ -2495,7 +2535,10 @@
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
     <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
     <mergeCell ref="I64:I66"/>
     <mergeCell ref="J64:J66"/>
     <mergeCell ref="K58:K60"/>

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,54 @@
   </si>
   <si>
     <t>面条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枕芯15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:H73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1112,7 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-80.200000000000045</v>
+        <v>16.133333333333326</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -1090,7 +1138,7 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>-115.90000000000003</v>
+        <v>-19.566666666666663</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -1110,11 +1158,11 @@
       </c>
       <c r="O6" s="4">
         <f>SUMPRODUCT((I4:I84="邹逍")*K4:K84)</f>
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>196.09999999999997</v>
+        <v>3.4333333333333371</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -1148,7 +1196,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="21">
         <f>AVERAGE(O4:O6)</f>
-        <v>330.09999999999997</v>
+        <v>426.43333333333334</v>
       </c>
       <c r="P7" s="22"/>
     </row>
@@ -1173,7 +1221,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="19">
         <f>SUM(O4:O6)</f>
-        <v>990.3</v>
+        <v>1279.3</v>
       </c>
       <c r="P8" s="20"/>
     </row>
@@ -2064,7 +2112,9 @@
         <v>17</v>
       </c>
       <c r="D61" s="31"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
       <c r="H61" s="25"/>
@@ -2248,19 +2298,29 @@
         <v>21</v>
       </c>
       <c r="D73" s="31"/>
-      <c r="E73" s="23"/>
+      <c r="E73" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
       <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="28"/>
+      <c r="I73" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" s="28">
+        <v>189</v>
+      </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
-      <c r="E74" s="23"/>
+      <c r="E74" s="23" t="s">
+        <v>88</v>
+      </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
       <c r="H74" s="25"/>
@@ -2288,19 +2348,29 @@
         <v>22</v>
       </c>
       <c r="D76" s="31"/>
-      <c r="E76" s="23"/>
+      <c r="E76" s="23" t="s">
+        <v>77</v>
+      </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
       <c r="H76" s="25"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="28"/>
+      <c r="I76" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="28">
+        <v>25</v>
+      </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="30"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="25"/>
@@ -2328,19 +2398,29 @@
         <v>23</v>
       </c>
       <c r="D79" s="31"/>
-      <c r="E79" s="23"/>
+      <c r="E79" s="23" t="s">
+        <v>78</v>
+      </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
       <c r="H79" s="25"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="28"/>
+      <c r="I79" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="28">
+        <v>35</v>
+      </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
-      <c r="E80" s="23"/>
+      <c r="E80" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
       <c r="H80" s="25"/>
@@ -2352,7 +2432,9 @@
       <c r="B81" s="30"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
-      <c r="E81" s="23"/>
+      <c r="E81" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="25"/>
@@ -2368,19 +2450,29 @@
         <v>24</v>
       </c>
       <c r="D82" s="31"/>
-      <c r="E82" s="23"/>
+      <c r="E82" s="23" t="s">
+        <v>84</v>
+      </c>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
       <c r="H82" s="25"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="28"/>
+      <c r="I82" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K82" s="28">
+        <v>40</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
-      <c r="E83" s="23"/>
+      <c r="E83" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
       <c r="H83" s="25"/>
@@ -2392,7 +2484,9 @@
       <c r="B84" s="30"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
-      <c r="E84" s="23"/>
+      <c r="E84" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
       <c r="H84" s="25"/>

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="8月开支" sheetId="1" r:id="rId1"/>
+    <sheet name="9月开支" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +219,6 @@
     <t>电费</t>
   </si>
   <si>
-    <t>七月电费单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡萝卜 X3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +356,51 @@
   </si>
   <si>
     <t>枕芯15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>冰冻小黄鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋刀鱼 X6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速冻饺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆腐乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卤鸡爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>料酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用品</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>网费  688/年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月电费单  杜荣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +472,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -445,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -551,11 +600,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,9 +669,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,33 +732,24 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -673,15 +777,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,6 +788,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +837,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -754,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,7 +914,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P84"/>
+  <dimension ref="B2:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,24 +1143,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="M2" s="17" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1047,12 +1172,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1076,368 +1201,368 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="30">
+      <c r="B4" s="38">
         <v>42590</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="37">
         <v>6.2</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="37">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="4">
-        <f>SUMPRODUCT((I4:I84="杜荣")*K4:K84)</f>
-        <v>410.3</v>
+        <f>SUMPRODUCT((I4:I92="杜荣")*K4:K92)</f>
+        <v>414.2</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>16.133333333333326</v>
+        <v>13.53333333333336</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="23" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
-      <c r="K5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="4">
-        <f>SUMPRODUCT((I4:I84="黄亮")*K4:K84)</f>
+        <f>SUMPRODUCT((I4:I92="黄亮")*K4:K92)</f>
         <v>446</v>
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>-19.566666666666663</v>
+        <v>-18.266666666666652</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="4">
-        <f>SUMPRODUCT((I4:I84="邹逍")*K4:K84)</f>
+        <f>SUMPRODUCT((I4:I92="邹逍")*K4:K92)</f>
         <v>423</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>3.4333333333333371</v>
+        <v>4.7333333333333485</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="30">
+      <c r="B7" s="38">
         <v>42591</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="37">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="21">
+      <c r="O7" s="35">
         <f>AVERAGE(O4:O6)</f>
-        <v>426.43333333333334</v>
-      </c>
-      <c r="P7" s="22"/>
+        <v>427.73333333333335</v>
+      </c>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="37"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="19">
+      <c r="O8" s="33">
         <f>SUM(O4:O6)</f>
-        <v>1279.3</v>
-      </c>
-      <c r="P8" s="20"/>
+        <v>1283.2</v>
+      </c>
+      <c r="P8" s="34"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="37"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="37"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="30">
+      <c r="B11" s="38">
         <v>42592</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="37">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="28"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="30">
+      <c r="B14" s="38">
         <v>42593</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="39">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="37">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
-      <c r="K15" s="28"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="30">
+      <c r="B17" s="38">
         <v>42594</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="25">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
-      <c r="K18" s="42"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="43"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1449,1054 +1574,1208 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="30">
+      <c r="B21" s="38">
         <v>42595</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="39">
         <v>6</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="28"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
+      <c r="B24" s="46">
         <v>42596</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="28">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="15" t="s">
+      <c r="E24" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="60">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="16">
-        <v>85.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" s="28">
+      <c r="K25" s="37">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="28"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="28"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="28"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
-      <c r="K29" s="28"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
-      <c r="K30" s="28"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
-      <c r="K31" s="28"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="23" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="30">
+      <c r="B33" s="38">
         <v>42597</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="39">
         <v>8</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="K34" s="28"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="30">
+      <c r="B36" s="38">
         <v>42598</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="39">
         <v>9</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="37">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="28">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
-      <c r="K37" s="28"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
-      <c r="K38" s="28"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="28"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="30">
+      <c r="B40" s="38">
         <v>42599</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="37">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="28">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
-      <c r="K41" s="28"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="7" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="37"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="38">
+        <v>42600</v>
+      </c>
+      <c r="C43" s="39">
+        <v>11</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="30">
-        <v>42600</v>
-      </c>
-      <c r="C43" s="31">
-        <v>11</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="37">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
-      <c r="K44" s="28"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="28"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="30">
+      <c r="B46" s="38">
         <v>42601</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="39">
         <v>12</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J46" s="26" t="s">
+      <c r="D46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="37">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="K47" s="28"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="28"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="30">
+      <c r="B49" s="38">
         <v>42602</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="39">
         <v>13</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J49" s="26" t="s">
+      <c r="D49" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="37">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="29"/>
       <c r="J50" s="29"/>
-      <c r="K50" s="28"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="28"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="30">
+      <c r="B52" s="38">
         <v>42603</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="39">
         <v>14</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26" t="s">
+      <c r="D52" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="28">
+      <c r="K52" s="37">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
-      <c r="K53" s="28"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="23" t="s">
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="38">
+        <v>42604</v>
+      </c>
+      <c r="C55" s="39">
+        <v>15</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="30">
-        <v>42604</v>
-      </c>
-      <c r="C55" s="31">
-        <v>15</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="23" t="s">
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="37">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" s="28">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="25"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
-      <c r="K56" s="28"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="28"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="30">
+      <c r="B58" s="38">
         <v>42605</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="39">
         <v>16</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="26" t="s">
+      <c r="D58" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="25"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="29"/>
       <c r="J59" s="29"/>
-      <c r="K59" s="28"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="30">
+      <c r="B61" s="38">
         <v>42606</v>
       </c>
-      <c r="C61" s="31">
+      <c r="C61" s="39">
         <v>17</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="26" t="s">
+      <c r="D61" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
-      <c r="K62" s="28"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="28"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="30">
+      <c r="B64" s="38">
         <v>42607</v>
       </c>
-      <c r="C64" s="31">
+      <c r="C64" s="39">
         <v>18</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="23" t="s">
+      <c r="D64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65" s="38"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J64" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K64" s="28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="29"/>
       <c r="J65" s="29"/>
-      <c r="K65" s="28"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="30">
+      <c r="K65" s="37"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="37"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="38">
         <v>42608</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C67" s="39">
         <v>19</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="28"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="25"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="37"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
-      <c r="K68" s="28"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="28"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="30">
+      <c r="K68" s="37"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="38"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="37"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="38">
         <v>42609</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="39">
         <v>20</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="26" t="s">
+      <c r="D70" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="28">
+      <c r="K70" s="37">
         <v>12.9</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="25"/>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="29"/>
       <c r="J71" s="29"/>
-      <c r="K71" s="28"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="28"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="30">
+      <c r="K71" s="37"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="37"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="38">
         <v>42610</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="39">
         <v>21</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="23" t="s">
+      <c r="D73" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K73" s="37">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="38"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J73" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K73" s="28">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
-      <c r="K74" s="28"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="28"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="30">
+      <c r="K74" s="37"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B75" s="38"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="37"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B76" s="38">
         <v>42611</v>
       </c>
-      <c r="C76" s="31">
+      <c r="C76" s="39">
         <v>22</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="26" t="s">
+      <c r="D76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="26" t="s">
+      <c r="J76" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="28">
+      <c r="K76" s="37">
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25"/>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B77" s="38"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="29"/>
       <c r="J77" s="29"/>
-      <c r="K77" s="28"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="28"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="30">
+      <c r="K77" s="37"/>
+      <c r="M77" s="21"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78" s="38"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="37"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="46">
         <v>42612</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="28">
         <v>23</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="23" t="s">
+      <c r="D79" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" s="47"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K79" s="28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="25"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
-      <c r="K80" s="28"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="28"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="37"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="30">
+      <c r="B82" s="48"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="65">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="38">
         <v>42613</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="26" t="s">
+      <c r="D83" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="26" t="s">
+      <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K83" s="37">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="28"/>
-    </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="29"/>
       <c r="E84" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="28"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="37"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="38"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="37"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="38"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K86" s="25">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="38"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="26"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="38"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="26"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="38"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="26"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90" s="38"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="26"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="38"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="26"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="38"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="27"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="230">
+  <mergeCells count="242">
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
     <mergeCell ref="E33:H33"/>
     <mergeCell ref="I33:I35"/>
     <mergeCell ref="J33:J35"/>
@@ -2633,7 +2912,6 @@
     <mergeCell ref="E52:H52"/>
     <mergeCell ref="I52:I54"/>
     <mergeCell ref="J52:J54"/>
-    <mergeCell ref="I64:I66"/>
     <mergeCell ref="J64:J66"/>
     <mergeCell ref="K58:K60"/>
     <mergeCell ref="E59:H59"/>
@@ -2677,22 +2955,20 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
     <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
     <mergeCell ref="D79:D81"/>
     <mergeCell ref="E79:H79"/>
     <mergeCell ref="I79:I81"/>
@@ -2714,6 +2990,11 @@
     <mergeCell ref="J70:J72"/>
     <mergeCell ref="E74:H74"/>
     <mergeCell ref="E75:H75"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O7:P7"/>
@@ -2727,23 +3008,1637 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="J11:J13"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="I64:I66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N9 I4:I25 I33:I84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N9 I4:I25 I33:I83 I86">
       <formula1>"杜荣,黄亮,邹逍"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D17 D19:D23">
       <formula1>"蔬菜,肉类,日用品,电器,药物,零食"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J17 J20:J25 J33:J84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J17 J20:J25 J33:J83 J86">
       <formula1>"现金,支付宝,微信,银行卡,信用卡"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D33:D40 D42:D84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D33:D40 D42:D83 D86">
       <formula1>"蔬菜,肉类,日用品,电器,药物,零食,超市,水费,电费,燃气费,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="M2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="38">
+        <v>42614</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="37"/>
+      <c r="M4" s="37">
+        <v>8</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="17">
+        <f>SUMPRODUCT((I4:I93="杜荣")*K4:K93)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f>O7-O4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="17">
+        <f>SUMPRODUCT((I4:I93="黄亮")*K4:K93)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f>O7-O5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="17">
+        <f>SUMPRODUCT((I4:I93="邹逍")*K4:K93)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f>O7-O6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="38">
+        <v>42615</v>
+      </c>
+      <c r="C7" s="39">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="37"/>
+      <c r="M7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="35">
+        <f>AVERAGE(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="37"/>
+      <c r="M8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="33">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="37"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="38">
+        <v>42616</v>
+      </c>
+      <c r="C10" s="39">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="38">
+        <v>42617</v>
+      </c>
+      <c r="C13" s="39">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="38">
+        <v>42618</v>
+      </c>
+      <c r="C16" s="39">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="38">
+        <v>42619</v>
+      </c>
+      <c r="C19" s="39">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="38">
+        <v>42620</v>
+      </c>
+      <c r="C22" s="28">
+        <v>7</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="38"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="38"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="38">
+        <v>42621</v>
+      </c>
+      <c r="C25" s="39">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="38">
+        <v>42622</v>
+      </c>
+      <c r="C28" s="39">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="38">
+        <v>42623</v>
+      </c>
+      <c r="C31" s="39">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="38">
+        <v>42624</v>
+      </c>
+      <c r="C34" s="39">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="38">
+        <v>42625</v>
+      </c>
+      <c r="C37" s="39">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="38">
+        <v>42626</v>
+      </c>
+      <c r="C40" s="39">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="37"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="37"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="37"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="38">
+        <v>42627</v>
+      </c>
+      <c r="C43" s="39">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="37"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="37"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="38">
+        <v>42628</v>
+      </c>
+      <c r="C46" s="39">
+        <v>15</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="37"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="37"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="37"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="38">
+        <v>42629</v>
+      </c>
+      <c r="C49" s="39">
+        <v>16</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="37"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="37"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="37"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="38">
+        <v>42630</v>
+      </c>
+      <c r="C52" s="39">
+        <v>17</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="37"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="37"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" s="38">
+        <v>42631</v>
+      </c>
+      <c r="C55" s="39">
+        <v>18</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="37"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="38">
+        <v>42632</v>
+      </c>
+      <c r="C58" s="39">
+        <v>19</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="37"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="37"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="38">
+        <v>42633</v>
+      </c>
+      <c r="C61" s="39">
+        <v>20</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="37"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="37"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="37"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="38">
+        <v>42634</v>
+      </c>
+      <c r="C64" s="39">
+        <v>21</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="37"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="38"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="37"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="37"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="38">
+        <v>42635</v>
+      </c>
+      <c r="C67" s="39">
+        <v>22</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="37"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="37"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="38"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="37"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="38">
+        <v>42636</v>
+      </c>
+      <c r="C70" s="39">
+        <v>23</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="37"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="37"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="37"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" s="38">
+        <v>42637</v>
+      </c>
+      <c r="C73" s="39">
+        <v>24</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="37"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" s="38"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="37"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="38"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="37"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" s="38">
+        <v>42638</v>
+      </c>
+      <c r="C76" s="39">
+        <v>25</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="37"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" s="38"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="37"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="38"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="37"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="38">
+        <v>42639</v>
+      </c>
+      <c r="C79" s="39">
+        <v>26</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="37"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="38"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="37"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="37"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="38">
+        <v>42640</v>
+      </c>
+      <c r="C82" s="39">
+        <v>27</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="37"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="37"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="37"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="38">
+        <v>42641</v>
+      </c>
+      <c r="C85" s="39">
+        <v>28</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="37"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="38"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="37"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="38"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="37"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="38">
+        <v>42642</v>
+      </c>
+      <c r="C88" s="39">
+        <v>29</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="37"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="38"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="37"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90" s="38"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="37"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="38">
+        <v>42643</v>
+      </c>
+      <c r="C91" s="39">
+        <v>30</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="37"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="38"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="37"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B93" s="38"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="246">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D23 D33:D93 D25:D31">
+      <formula1>"蔬菜,肉类,日用品,电器,药物,零食,超市,水费,电费,燃气费,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J16 J19:J23 J25:J73 J76 J79 J82 J85 J88 J91">
+      <formula1>"现金,支付宝,微信,银行卡,信用卡"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D10 D13:D16 D18:D21">
+      <formula1>"蔬菜,肉类,日用品,电器,药物,零食"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N9 I4:I23 I25:I73 I76 I79 I82 I85 I88 I91">
+      <formula1>"杜荣,黄亮,邹逍"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="8月开支" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,66 @@
   </si>
   <si>
     <t>七月电费单  杜荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五花肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香辣辣椒油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散装香菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土黑母鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花甲 X3斤 （略显尴尬）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,6 +747,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -696,6 +795,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,14 +834,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,42 +870,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -776,48 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q83" sqref="Q83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1143,24 +1203,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="M2" s="31" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1172,12 +1232,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1210,22 +1270,22 @@
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="28" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="44">
         <v>6.2</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="44">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1233,27 +1293,27 @@
       </c>
       <c r="O4" s="4">
         <f>SUMPRODUCT((I4:I92="杜荣")*K4:K92)</f>
-        <v>414.2</v>
+        <v>499.8</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>13.53333333333336</v>
+        <v>-43.53333333333336</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1263,21 +1323,21 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>-18.266666666666652</v>
+        <v>10.266666666666652</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="38"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1347,7 @@
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>4.7333333333333485</v>
+        <v>33.266666666666652</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -1300,69 +1360,69 @@
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="28" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="44">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="35">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
-        <v>427.73333333333335</v>
-      </c>
-      <c r="P7" s="36"/>
+        <v>456.26666666666665</v>
+      </c>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="44"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="33">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
-        <v>1283.2</v>
-      </c>
-      <c r="P8" s="34"/>
+        <v>1368.8</v>
+      </c>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="44"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
@@ -1374,15 +1434,15 @@
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="37"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="44"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
@@ -1395,51 +1455,51 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="44">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="37"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="38">
@@ -1451,19 +1511,19 @@
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="28" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="44">
         <v>22.5</v>
       </c>
     </row>
@@ -1473,27 +1533,27 @@
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="37"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="38"/>
       <c r="C16" s="39"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="37"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="38">
@@ -1502,38 +1562,38 @@
       <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="28" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="48">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="26"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="38"/>
@@ -1541,15 +1601,15 @@
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="27"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="38"/>
@@ -1557,12 +1617,12 @@
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1581,181 +1641,183 @@
         <v>6</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="37"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="37"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="46">
+      <c r="B24" s="29">
         <v>42596</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="26">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59" t="s">
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="23">
         <v>85.6</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="28" t="s">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="44">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="43" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="37"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="44"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="43" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="37"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="43" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="37"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="44"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="43" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="37"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="43" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="37"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="48"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="22" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="38">
@@ -1767,19 +1829,19 @@
       <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="28" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="44">
         <v>5</v>
       </c>
     </row>
@@ -1787,27 +1849,27 @@
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="44"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="37"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="44"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="38">
@@ -1819,19 +1881,19 @@
       <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="28" t="s">
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="J36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="44">
         <v>36.799999999999997</v>
       </c>
     </row>
@@ -1839,43 +1901,43 @@
       <c r="B37" s="38"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="44"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="37"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="44"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="37"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="38">
@@ -1884,38 +1946,38 @@
       <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="28" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="J40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="44">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="22" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="38"/>
@@ -1923,15 +1985,15 @@
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="37"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="44"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="38">
@@ -1943,19 +2005,19 @@
       <c r="D43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="28" t="s">
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="J43" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="44">
         <v>49</v>
       </c>
     </row>
@@ -1963,25 +2025,25 @@
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="37"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="37"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="44"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="38">
@@ -1993,19 +2055,19 @@
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="28" t="s">
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="44">
         <v>35</v>
       </c>
     </row>
@@ -2013,25 +2075,25 @@
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="37"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="37"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="44"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="38">
@@ -2043,19 +2105,19 @@
       <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="28" t="s">
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="28" t="s">
+      <c r="J49" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="44">
         <v>166</v>
       </c>
     </row>
@@ -2063,25 +2125,25 @@
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="37"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="44"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="38"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="37"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="44"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="38">
@@ -2093,19 +2155,19 @@
       <c r="D52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="28" t="s">
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="44">
         <v>26</v>
       </c>
     </row>
@@ -2113,29 +2175,29 @@
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="37"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="44"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="37"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="44"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="38">
@@ -2147,19 +2209,19 @@
       <c r="D55" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="28" t="s">
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="28" t="s">
+      <c r="J55" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="44">
         <v>110</v>
       </c>
     </row>
@@ -2167,27 +2229,27 @@
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="37"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="44"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="38"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="37"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="38">
@@ -2199,17 +2261,17 @@
       <c r="D58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="28" t="s">
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="28" t="s">
+      <c r="J58" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="37">
+      <c r="K58" s="44">
         <v>10</v>
       </c>
     </row>
@@ -2217,27 +2279,27 @@
       <c r="B59" s="38"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="37"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="44"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="38"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="37"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="44"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="38">
@@ -2249,19 +2311,19 @@
       <c r="D61" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="28" t="s">
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="37">
+      <c r="K61" s="44">
         <v>14</v>
       </c>
     </row>
@@ -2269,25 +2331,25 @@
       <c r="B62" s="38"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="37"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="44"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="38"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="37"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="44"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="38">
@@ -2299,19 +2361,19 @@
       <c r="D64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="28" t="s">
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="J64" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="37">
+      <c r="K64" s="44">
         <v>21</v>
       </c>
     </row>
@@ -2319,27 +2381,27 @@
       <c r="B65" s="38"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="37"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="44"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="38"/>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="37"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" s="38">
@@ -2349,37 +2411,37 @@
         <v>19</v>
       </c>
       <c r="D67" s="39"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="37"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="44"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="38"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="37"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="44"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" s="38"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="37"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="44"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" s="38">
@@ -2391,19 +2453,19 @@
       <c r="D70" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="28" t="s">
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="37">
+      <c r="K70" s="44">
         <v>12.9</v>
       </c>
     </row>
@@ -2411,25 +2473,25 @@
       <c r="B71" s="38"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="37"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="38"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="37"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="44"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" s="38">
@@ -2441,19 +2503,19 @@
       <c r="D73" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E73" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="28" t="s">
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J73" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="37">
+      <c r="K73" s="44">
         <v>189</v>
       </c>
     </row>
@@ -2461,27 +2523,27 @@
       <c r="B74" s="38"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="37"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="44"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="38"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="37"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="38">
@@ -2493,19 +2555,19 @@
       <c r="D76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="28" t="s">
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="J76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="37">
+      <c r="K76" s="44">
         <v>25</v>
       </c>
     </row>
@@ -2513,100 +2575,100 @@
       <c r="B77" s="38"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="37"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="44"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="38"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="37"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="44"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="46">
+      <c r="B79" s="29">
         <v>42612</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="26">
         <v>23</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="28" t="s">
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="28" t="s">
+      <c r="J79" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="37">
+      <c r="K79" s="44">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="47"/>
-      <c r="C80" s="29"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="27"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="37"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="44"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="47"/>
-      <c r="C81" s="29"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="37"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="44"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="48"/>
-      <c r="C82" s="30"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="61" t="s">
+      <c r="E82" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64" t="s">
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K82" s="65">
+      <c r="K82" s="25">
         <v>688</v>
       </c>
     </row>
@@ -2617,320 +2679,222 @@
       <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
       <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="37">
+      <c r="K83" s="44">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="38"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="23" t="s">
+      <c r="D84" s="27"/>
+      <c r="E84" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
-      <c r="K84" s="37"/>
+      <c r="K84" s="44"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="38"/>
       <c r="C85" s="39"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="23" t="s">
+      <c r="D85" s="28"/>
+      <c r="E85" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
-      <c r="K85" s="37"/>
+      <c r="K85" s="44"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="38"/>
       <c r="C86" s="39"/>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="29" t="s">
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="J86" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="25">
+      <c r="K86" s="48">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="38"/>
       <c r="C87" s="39"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="22" t="s">
+      <c r="D87" s="27"/>
+      <c r="E87" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="26"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="49"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="38"/>
       <c r="C88" s="39"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="22" t="s">
+      <c r="D88" s="27"/>
+      <c r="E88" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="26"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="49"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="38"/>
       <c r="C89" s="39"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="22" t="s">
+      <c r="D89" s="27"/>
+      <c r="E89" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="26"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="49"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="38"/>
       <c r="C90" s="39"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="22" t="s">
+      <c r="D90" s="27"/>
+      <c r="E90" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="26"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="49"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="38"/>
       <c r="C91" s="39"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="22" t="s">
+      <c r="D91" s="27"/>
+      <c r="E91" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="26"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="49"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="38"/>
       <c r="C92" s="39"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="22" t="s">
+      <c r="D92" s="28"/>
+      <c r="E92" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="27"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="50"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="D76:D78"/>
@@ -2955,66 +2919,164 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="E37:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3038,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P93"/>
+  <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3058,24 +3120,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="M2" s="31" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3087,12 +3149,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3122,75 +3184,89 @@
       <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="37"/>
-      <c r="M4" s="37">
+      <c r="D4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="44">
+        <v>20</v>
+      </c>
+      <c r="M4" s="44">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="17">
-        <f>SUMPRODUCT((I4:I93="杜荣")*K4:K93)</f>
-        <v>0</v>
+        <f>SUMPRODUCT((I4:I99="杜荣")*K4:K99)</f>
+        <v>167.5</v>
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>0</v>
+        <v>-91.666666666666671</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="44"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="17">
-        <f>SUMPRODUCT((I4:I93="黄亮")*K4:K93)</f>
+        <f>SUMPRODUCT((I4:I99="黄亮")*K4:K99)</f>
         <v>0</v>
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>0</v>
+        <v>75.833333333333329</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="38"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="44"/>
+      <c r="M6" s="44"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
-        <f>SUMPRODUCT((I4:I93="邹逍")*K4:K93)</f>
-        <v>0</v>
+        <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
+        <v>60</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>0</v>
+        <v>15.833333333333329</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -3200,56 +3276,70 @@
       <c r="C7" s="39">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="37"/>
+      <c r="D7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="44">
+        <v>40</v>
+      </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="35">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="36"/>
+        <v>75.833333333333329</v>
+      </c>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="37"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="44"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="33">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="34"/>
+        <v>227.5</v>
+      </c>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="37"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="44"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
@@ -3262,1130 +3352,1450 @@
       <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="37"/>
+      <c r="D10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="44">
+        <v>167.5</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="37"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="37"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="38">
-        <v>42617</v>
-      </c>
-      <c r="C13" s="39">
-        <v>4</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="37"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="37"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
-        <v>42618</v>
-      </c>
-      <c r="C16" s="39">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="25"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="38"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="38">
-        <v>42619</v>
+        <v>42617</v>
       </c>
       <c r="C19" s="39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="37"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="37"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="38">
-        <v>42620</v>
-      </c>
-      <c r="C22" s="28">
-        <v>7</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="19"/>
+        <v>42618</v>
+      </c>
+      <c r="C22" s="39">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="38"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="37"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="49"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="38"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="37"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="38">
-        <v>42621</v>
+        <v>42619</v>
       </c>
       <c r="C25" s="39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="37"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="44"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="37"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="44"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="38"/>
       <c r="C27" s="39"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="37"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="44"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="38">
-        <v>42622</v>
-      </c>
-      <c r="C28" s="39">
-        <v>9</v>
+        <v>42620</v>
+      </c>
+      <c r="C28" s="26">
+        <v>7</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="37"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="37"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="37"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="38">
-        <v>42623</v>
+        <v>42621</v>
       </c>
       <c r="C31" s="39">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="37"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
       <c r="C32" s="39"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="37"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="38"/>
       <c r="C33" s="39"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="37"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="44"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="38">
-        <v>42624</v>
+        <v>42622</v>
       </c>
       <c r="C34" s="39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="37"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="44"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="37"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="44"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="38"/>
       <c r="C36" s="39"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="37"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="44"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="38">
-        <v>42625</v>
+        <v>42623</v>
       </c>
       <c r="C37" s="39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="37"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="44"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="38"/>
       <c r="C38" s="39"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="37"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="44"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" s="38"/>
       <c r="C39" s="39"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="37"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="44"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="38">
-        <v>42626</v>
+        <v>42624</v>
       </c>
       <c r="C40" s="39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="37"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="44"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="38"/>
       <c r="C41" s="39"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="37"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="37"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="44"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="38">
-        <v>42627</v>
+        <v>42625</v>
       </c>
       <c r="C43" s="39">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="37"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="38"/>
       <c r="C44" s="39"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="37"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="38"/>
       <c r="C45" s="39"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="37"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="44"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="38">
-        <v>42628</v>
+        <v>42626</v>
       </c>
       <c r="C46" s="39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="37"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="44"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="38"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="37"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="38"/>
       <c r="C48" s="39"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="37"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="44"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="38">
-        <v>42629</v>
+        <v>42627</v>
       </c>
       <c r="C49" s="39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="37"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="44"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="38"/>
       <c r="C50" s="39"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="37"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="44"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="38"/>
       <c r="C51" s="39"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="37"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="44"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="38">
-        <v>42630</v>
+        <v>42628</v>
       </c>
       <c r="C52" s="39">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="37"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="44"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="38"/>
       <c r="C53" s="39"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="37"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="44"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="38"/>
       <c r="C54" s="39"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="37"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="44"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="38">
-        <v>42631</v>
+        <v>42629</v>
       </c>
       <c r="C55" s="39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="37"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="44"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="38"/>
       <c r="C56" s="39"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="37"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="44"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="38"/>
       <c r="C57" s="39"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="37"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="44"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="38">
-        <v>42632</v>
+        <v>42630</v>
       </c>
       <c r="C58" s="39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="37"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="44"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="38"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="37"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="44"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="38"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="37"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="44"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="38">
-        <v>42633</v>
+        <v>42631</v>
       </c>
       <c r="C61" s="39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="37"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="44"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="38"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="37"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="44"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="38"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="37"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="44"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="38">
-        <v>42634</v>
+        <v>42632</v>
       </c>
       <c r="C64" s="39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="37"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="44"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B65" s="38"/>
       <c r="C65" s="39"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="37"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="44"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="38"/>
       <c r="C66" s="39"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="37"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="38">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="C67" s="39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="37"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="44"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="38"/>
       <c r="C68" s="39"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="37"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="44"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="38"/>
       <c r="C69" s="39"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="37"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="44"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="38">
-        <v>42636</v>
+        <v>42634</v>
       </c>
       <c r="C70" s="39">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="37"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="44"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B71" s="38"/>
       <c r="C71" s="39"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="37"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="44"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B72" s="38"/>
       <c r="C72" s="39"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="37"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="44"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B73" s="38">
-        <v>42637</v>
+        <v>42635</v>
       </c>
       <c r="C73" s="39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="37"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="44"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74" s="38"/>
       <c r="C74" s="39"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="37"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="44"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="38"/>
       <c r="C75" s="39"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="37"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B76" s="38">
-        <v>42638</v>
+        <v>42636</v>
       </c>
       <c r="C76" s="39">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="37"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="44"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B77" s="38"/>
       <c r="C77" s="39"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="39"/>
-      <c r="K77" s="37"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="44"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B78" s="38"/>
       <c r="C78" s="39"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
-      <c r="K78" s="37"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="44"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="38">
-        <v>42639</v>
+        <v>42637</v>
       </c>
       <c r="C79" s="39">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
-      <c r="K79" s="37"/>
+      <c r="K79" s="44"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="38"/>
       <c r="C80" s="39"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
-      <c r="K80" s="37"/>
+      <c r="K80" s="44"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="38"/>
       <c r="C81" s="39"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
       <c r="I81" s="39"/>
       <c r="J81" s="39"/>
-      <c r="K81" s="37"/>
+      <c r="K81" s="44"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B82" s="38">
-        <v>42640</v>
+        <v>42638</v>
       </c>
       <c r="C82" s="39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
       <c r="I82" s="39"/>
       <c r="J82" s="39"/>
-      <c r="K82" s="37"/>
+      <c r="K82" s="44"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B83" s="38"/>
       <c r="C83" s="39"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
-      <c r="K83" s="37"/>
+      <c r="K83" s="44"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B84" s="38"/>
       <c r="C84" s="39"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
-      <c r="K84" s="37"/>
+      <c r="K84" s="44"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="38">
-        <v>42641</v>
+        <v>42639</v>
       </c>
       <c r="C85" s="39">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
-      <c r="K85" s="37"/>
+      <c r="K85" s="44"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B86" s="38"/>
       <c r="C86" s="39"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
-      <c r="K86" s="37"/>
+      <c r="K86" s="44"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B87" s="38"/>
       <c r="C87" s="39"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
       <c r="I87" s="39"/>
       <c r="J87" s="39"/>
-      <c r="K87" s="37"/>
+      <c r="K87" s="44"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B88" s="38">
-        <v>42642</v>
+        <v>42640</v>
       </c>
       <c r="C88" s="39">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
       <c r="I88" s="39"/>
       <c r="J88" s="39"/>
-      <c r="K88" s="37"/>
+      <c r="K88" s="44"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B89" s="38"/>
       <c r="C89" s="39"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
-      <c r="K89" s="37"/>
+      <c r="K89" s="44"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B90" s="38"/>
       <c r="C90" s="39"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="39"/>
       <c r="J90" s="39"/>
-      <c r="K90" s="37"/>
+      <c r="K90" s="44"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B91" s="38">
-        <v>42643</v>
+        <v>42641</v>
       </c>
       <c r="C91" s="39">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="39"/>
       <c r="J91" s="39"/>
-      <c r="K91" s="37"/>
+      <c r="K91" s="44"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B92" s="38"/>
       <c r="C92" s="39"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
       <c r="I92" s="39"/>
       <c r="J92" s="39"/>
-      <c r="K92" s="37"/>
+      <c r="K92" s="44"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B93" s="38"/>
       <c r="C93" s="39"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
       <c r="I93" s="39"/>
       <c r="J93" s="39"/>
-      <c r="K93" s="37"/>
+      <c r="K93" s="44"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B94" s="38">
+        <v>42642</v>
+      </c>
+      <c r="C94" s="39">
+        <v>29</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="44"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95" s="38"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="44"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="38"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="44"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="38">
+        <v>42643</v>
+      </c>
+      <c r="C97" s="39">
+        <v>30</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="44"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="38"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="44"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="38"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="246">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
+  <mergeCells count="255">
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="O8:P8"/>
@@ -4399,246 +4809,34 @@
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D23 D33:D93 D25:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D10 D19:D99">
       <formula1>"蔬菜,肉类,日用品,电器,药物,零食,超市,水费,电费,燃气费,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J16 J19:J23 J25:J73 J76 J79 J82 J85 J88 J91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J22 J25:J29 J31:J79 J82 J85 J88 J91 J94 J97">
       <formula1>"现金,支付宝,微信,银行卡,信用卡"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7 D10 D13:D16 D18:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"蔬菜,肉类,日用品,电器,药物,零食"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N9 I4:I23 I25:I73 I76 I79 I82 I85 I88 I91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N9 I4:I29 I31:I79 I82 I85 I88 I91 I94 I97">
       <formula1>"杜荣,黄亮,邹逍"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="8月开支" sheetId="1" r:id="rId1"/>
     <sheet name="9月开支" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,22 @@
   </si>
   <si>
     <t>花甲 X3斤 （略显尴尬）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝瓜、韭菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘦肉25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜、土豆、豆芽、勺叶、南瓜18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,6 +775,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,6 +793,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,6 +857,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,90 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -897,7 +913,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,7 +990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,24 +1219,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1232,12 +1248,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1277,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="38">
+      <c r="B4" s="40">
         <v>42590</v>
       </c>
       <c r="C4" s="39">
@@ -1270,22 +1286,22 @@
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="38">
         <v>6.2</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1301,19 +1317,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1327,17 +1343,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1367,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <v>42591</v>
       </c>
       <c r="C7" s="39">
@@ -1360,93 +1376,93 @@
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="26" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="38">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="60"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="44"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="39"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="44"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="38"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="38">
+      <c r="B11" s="40">
         <v>42592</v>
       </c>
       <c r="C11" s="39">
@@ -1455,54 +1471,54 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="38">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="44"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="44"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="38">
+      <c r="B14" s="40">
         <v>42593</v>
       </c>
       <c r="C14" s="39">
@@ -1511,118 +1527,118 @@
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="26" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="38">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="44"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="39"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="44"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="38">
+      <c r="B17" s="40">
         <v>42594</v>
       </c>
       <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="26" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="44">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="49"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="50"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="39"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1634,61 +1650,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
+      <c r="B21" s="40">
         <v>42595</v>
       </c>
       <c r="C21" s="39">
         <v>6</v>
       </c>
       <c r="D21" s="39"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="44"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="44"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="44"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="29">
+      <c r="B24" s="50">
         <v>42596</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="29">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1700,127 +1716,127 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="26" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="38">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="45" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="44"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="45" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="44"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="45" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="44"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="45" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="44"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="45" t="s">
+      <c r="B30" s="51"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="44"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="35" t="s">
+      <c r="B31" s="51"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="44"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="31"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="35" t="s">
+      <c r="B32" s="52"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="44"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="38">
+      <c r="B33" s="40">
         <v>42597</v>
       </c>
       <c r="C33" s="39">
@@ -1829,50 +1845,50 @@
       <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="26" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="44"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="44"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="38">
+      <c r="B36" s="40">
         <v>42598</v>
       </c>
       <c r="C36" s="39">
@@ -1881,122 +1897,122 @@
       <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="26" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="44">
+      <c r="K36" s="38">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="38"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="44"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="38"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="44"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="38"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="44"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="38">
+      <c r="B40" s="40">
         <v>42599</v>
       </c>
       <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="26" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="38">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="38"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="39"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="35" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="44"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="38"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="44"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="38">
+      <c r="B43" s="40">
         <v>42600</v>
       </c>
       <c r="C43" s="39">
@@ -2005,48 +2021,48 @@
       <c r="D43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="26" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="44">
+      <c r="K43" s="38">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="38"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="44"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="38"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="44"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="38">
+      <c r="B46" s="40">
         <v>42601</v>
       </c>
       <c r="C46" s="39">
@@ -2055,48 +2071,48 @@
       <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="26" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="44">
+      <c r="K46" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="38"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="44"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="38"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="44"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="38">
+      <c r="B49" s="40">
         <v>42602</v>
       </c>
       <c r="C49" s="39">
@@ -2105,48 +2121,48 @@
       <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="26" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="44">
+      <c r="K49" s="38">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="38"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="44"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="38"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="44"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="38">
+      <c r="B52" s="40">
         <v>42603</v>
       </c>
       <c r="C52" s="39">
@@ -2155,52 +2171,52 @@
       <c r="D52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="26" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="44">
+      <c r="K52" s="38">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="38"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="44"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="38"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="44"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="38">
+      <c r="B55" s="40">
         <v>42604</v>
       </c>
       <c r="C55" s="39">
@@ -2209,50 +2225,50 @@
       <c r="D55" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="26" t="s">
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="44">
+      <c r="K55" s="38">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="38"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="44"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="38"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="44"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="38">
+      <c r="B58" s="40">
         <v>42605</v>
       </c>
       <c r="C58" s="39">
@@ -2261,48 +2277,48 @@
       <c r="D58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="26" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="44">
+      <c r="K58" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="38"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="44"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="38"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="44"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="38">
+      <c r="B61" s="40">
         <v>42606</v>
       </c>
       <c r="C61" s="39">
@@ -2311,48 +2327,48 @@
       <c r="D61" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="26" t="s">
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="44">
+      <c r="K61" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="38"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="44"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="38"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="44"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="38">
+      <c r="B64" s="40">
         <v>42607</v>
       </c>
       <c r="C64" s="39">
@@ -2361,90 +2377,90 @@
       <c r="D64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="26" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="44">
+      <c r="K64" s="38">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="38"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="44"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="38"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="44"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="38">
+      <c r="B67" s="40">
         <v>42608</v>
       </c>
       <c r="C67" s="39">
         <v>19</v>
       </c>
       <c r="D67" s="39"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="44"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="38"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="44"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="38"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="44"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="38">
+      <c r="B70" s="40">
         <v>42609</v>
       </c>
       <c r="C70" s="39">
@@ -2453,48 +2469,48 @@
       <c r="D70" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="26" t="s">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="44">
+      <c r="K70" s="38">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="38"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="44"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="38"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="44"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="38">
+      <c r="B73" s="40">
         <v>42610</v>
       </c>
       <c r="C73" s="39">
@@ -2503,50 +2519,50 @@
       <c r="D73" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="26" t="s">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="26" t="s">
+      <c r="J73" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="44">
+      <c r="K73" s="38">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="38"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="44"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="38"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="44"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="38">
+      <c r="B76" s="40">
         <v>42611</v>
       </c>
       <c r="C76" s="39">
@@ -2555,115 +2571,115 @@
       <c r="D76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="26" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="26" t="s">
+      <c r="J76" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="44">
+      <c r="K76" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="38"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="35" t="s">
+      <c r="E77" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="44"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="38"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="44"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="29">
+      <c r="B79" s="50">
         <v>42612</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="29">
         <v>23</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="26" t="s">
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="26" t="s">
+      <c r="J79" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="44">
+      <c r="K79" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
-      <c r="C80" s="27"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="44"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
-      <c r="C81" s="27"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="44"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="31"/>
-      <c r="C82" s="28"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="34"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="62"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2673,228 +2689,323 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="38">
+      <c r="B83" s="40">
         <v>42613</v>
       </c>
       <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="44">
+      <c r="K83" s="38">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="38"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="39"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="36" t="s">
+      <c r="D84" s="30"/>
+      <c r="E84" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
-      <c r="K84" s="44"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="38"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="39"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="36" t="s">
+      <c r="D85" s="31"/>
+      <c r="E85" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
-      <c r="K85" s="44"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="38"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="39"/>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="27" t="s">
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="27" t="s">
+      <c r="J86" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="48">
+      <c r="K86" s="44">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="38"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="39"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="35" t="s">
+      <c r="D87" s="30"/>
+      <c r="E87" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="49"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="38"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="39"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="35" t="s">
+      <c r="D88" s="30"/>
+      <c r="E88" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="49"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="38"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="39"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="35" t="s">
+      <c r="D89" s="30"/>
+      <c r="E89" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="49"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="38"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="39"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="35" t="s">
+      <c r="D90" s="30"/>
+      <c r="E90" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="49"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="38"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="39"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="35" t="s">
+      <c r="D91" s="30"/>
+      <c r="E91" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="49"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="38"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="39"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="35" t="s">
+      <c r="D92" s="31"/>
+      <c r="E92" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="50"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="46"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="C76:C78"/>
     <mergeCell ref="D76:D78"/>
@@ -2919,164 +3030,69 @@
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
     <mergeCell ref="C79:C82"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="E82:H82"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E78:H78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3102,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3120,24 +3136,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3149,12 +3165,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3178,31 +3194,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="38">
+      <c r="B4" s="40">
         <v>42614</v>
       </c>
       <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="38">
         <v>20</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3214,23 +3230,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-91.666666666666671</v>
+        <v>-53.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3240,37 +3256,37 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>75.833333333333329</v>
+        <v>114.16666666666667</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>15.833333333333329</v>
+        <v>-60.833333333333329</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="38">
+      <c r="B7" s="40">
         <v>42615</v>
       </c>
       <c r="C7" s="39">
@@ -3279,335 +3295,363 @@
       <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="26" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="38">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
-        <v>75.833333333333329</v>
-      </c>
-      <c r="P7" s="62"/>
+        <v>114.16666666666667</v>
+      </c>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
-        <v>227.5</v>
-      </c>
-      <c r="P8" s="60"/>
+        <v>342.5</v>
+      </c>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="44"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="38">
+      <c r="B10" s="40">
         <v>42616</v>
       </c>
       <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="38">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="44"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="39"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="44"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="39"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="44"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="39"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="35" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="44"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="44"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="39"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="44"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="39"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="35" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="44"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="39"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="35" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="44"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
+      <c r="B19" s="40">
         <v>42617</v>
       </c>
       <c r="C19" s="39">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="44"/>
+      <c r="D19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="38">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="39"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="44"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="39"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="44"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
+      <c r="B22" s="40">
         <v>42618</v>
       </c>
       <c r="C22" s="39">
         <v>5</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="48"/>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="44">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="49"/>
+      <c r="D23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="50"/>
+      <c r="D24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="38">
+      <c r="B25" s="40">
         <v>42619</v>
       </c>
       <c r="C25" s="39">
         <v>6</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="44"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="39"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="44"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="39"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="44"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="38">
+      <c r="B28" s="40">
         <v>42620</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="29">
         <v>7</v>
       </c>
       <c r="D28" s="7"/>
@@ -3620,1111 +3664,1022 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="38"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="44"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="38"/>
-      <c r="C30" s="27"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="44"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="38">
+      <c r="B31" s="40">
         <v>42621</v>
       </c>
       <c r="C31" s="39">
         <v>8</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="44"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="39"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="44"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="38"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="39"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="44"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="38">
+      <c r="B34" s="40">
         <v>42622</v>
       </c>
       <c r="C34" s="39">
         <v>9</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="44"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="39"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="44"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="38"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="39"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="44"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="38">
+      <c r="B37" s="40">
         <v>42623</v>
       </c>
       <c r="C37" s="39">
         <v>10</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="44"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="38"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="39"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="44"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="38"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="39"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="44"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="38">
+      <c r="B40" s="40">
         <v>42624</v>
       </c>
       <c r="C40" s="39">
         <v>11</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="44"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="38"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="39"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="44"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="38"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="39"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="44"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="38">
+      <c r="B43" s="40">
         <v>42625</v>
       </c>
       <c r="C43" s="39">
         <v>12</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="44"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="38"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="39"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="44"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="38"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="39"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="44"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="38">
+      <c r="B46" s="40">
         <v>42626</v>
       </c>
       <c r="C46" s="39">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="44"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="38"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="39"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="44"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="38"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="39"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="44"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="38">
+      <c r="B49" s="40">
         <v>42627</v>
       </c>
       <c r="C49" s="39">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="44"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="38"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="39"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="44"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="38"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="39"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="44"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="38">
+      <c r="B52" s="40">
         <v>42628</v>
       </c>
       <c r="C52" s="39">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="44"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="38"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="39"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="44"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="38"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="39"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="44"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="38">
+      <c r="B55" s="40">
         <v>42629</v>
       </c>
       <c r="C55" s="39">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="44"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="38"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="39"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="44"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="38"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="39"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="44"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="38">
+      <c r="B58" s="40">
         <v>42630</v>
       </c>
       <c r="C58" s="39">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="44"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="38"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="39"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="44"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="38"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="39"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="44"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="38">
+      <c r="B61" s="40">
         <v>42631</v>
       </c>
       <c r="C61" s="39">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="44"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="38"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="39"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="44"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="38"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="39"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="44"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="38">
+      <c r="B64" s="40">
         <v>42632</v>
       </c>
       <c r="C64" s="39">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="44"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="38"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="39"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="44"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="38"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="39"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="44"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="38">
+      <c r="B67" s="40">
         <v>42633</v>
       </c>
       <c r="C67" s="39">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="44"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="38"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="39"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="44"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="38"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="39"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="44"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="38">
+      <c r="B70" s="40">
         <v>42634</v>
       </c>
       <c r="C70" s="39">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="44"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="38"/>
+      <c r="B71" s="40"/>
       <c r="C71" s="39"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="44"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="38"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="39"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="44"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="38">
+      <c r="B73" s="40">
         <v>42635</v>
       </c>
       <c r="C73" s="39">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="44"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="38"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="39"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="44"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="38"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="39"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="44"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="38">
+      <c r="B76" s="40">
         <v>42636</v>
       </c>
       <c r="C76" s="39">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="44"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="38"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="39"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="44"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="38"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="39"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="44"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="38">
+      <c r="B79" s="40">
         <v>42637</v>
       </c>
       <c r="C79" s="39">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
       <c r="I79" s="39"/>
       <c r="J79" s="39"/>
-      <c r="K79" s="44"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="38"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="39"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
-      <c r="K80" s="44"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="38"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="39"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="39"/>
       <c r="J81" s="39"/>
-      <c r="K81" s="44"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="38">
+      <c r="B82" s="40">
         <v>42638</v>
       </c>
       <c r="C82" s="39">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="39"/>
       <c r="J82" s="39"/>
-      <c r="K82" s="44"/>
+      <c r="K82" s="38"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="38"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="39"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
       <c r="I83" s="39"/>
       <c r="J83" s="39"/>
-      <c r="K83" s="44"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="38"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="39"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="39"/>
       <c r="J84" s="39"/>
-      <c r="K84" s="44"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="38">
+      <c r="B85" s="40">
         <v>42639</v>
       </c>
       <c r="C85" s="39">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="39"/>
       <c r="J85" s="39"/>
-      <c r="K85" s="44"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="38"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="39"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
       <c r="I86" s="39"/>
       <c r="J86" s="39"/>
-      <c r="K86" s="44"/>
+      <c r="K86" s="38"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="38"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="39"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
       <c r="I87" s="39"/>
       <c r="J87" s="39"/>
-      <c r="K87" s="44"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="38">
+      <c r="B88" s="40">
         <v>42640</v>
       </c>
       <c r="C88" s="39">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
       <c r="I88" s="39"/>
       <c r="J88" s="39"/>
-      <c r="K88" s="44"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="38"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="39"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
-      <c r="K89" s="44"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="38"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="39"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
       <c r="I90" s="39"/>
       <c r="J90" s="39"/>
-      <c r="K90" s="44"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="38">
+      <c r="B91" s="40">
         <v>42641</v>
       </c>
       <c r="C91" s="39">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
       <c r="I91" s="39"/>
       <c r="J91" s="39"/>
-      <c r="K91" s="44"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="38"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="39"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="39"/>
       <c r="J92" s="39"/>
-      <c r="K92" s="44"/>
+      <c r="K92" s="38"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="38"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="39"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
       <c r="I93" s="39"/>
       <c r="J93" s="39"/>
-      <c r="K93" s="44"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="38">
+      <c r="B94" s="40">
         <v>42642</v>
       </c>
       <c r="C94" s="39">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
       <c r="I94" s="39"/>
       <c r="J94" s="39"/>
-      <c r="K94" s="44"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="38"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="39"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
       <c r="I95" s="39"/>
       <c r="J95" s="39"/>
-      <c r="K95" s="44"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="38"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="39"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
       <c r="I96" s="39"/>
       <c r="J96" s="39"/>
-      <c r="K96" s="44"/>
+      <c r="K96" s="38"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="38">
+      <c r="B97" s="40">
         <v>42643</v>
       </c>
       <c r="C97" s="39">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="39"/>
       <c r="J97" s="39"/>
-      <c r="K97" s="44"/>
+      <c r="K97" s="38"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="38"/>
+      <c r="B98" s="40"/>
       <c r="C98" s="39"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
       <c r="I98" s="39"/>
       <c r="J98" s="39"/>
-      <c r="K98" s="44"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="38"/>
+      <c r="B99" s="40"/>
       <c r="C99" s="39"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
       <c r="I99" s="39"/>
       <c r="J99" s="39"/>
-      <c r="K99" s="44"/>
+      <c r="K99" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4749,77 +4704,166 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,18 @@
   </si>
   <si>
     <t>丝瓜4蒜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莴笋、包菜8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,6 +799,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,11 +817,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -811,14 +889,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -830,72 +908,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
@@ -1231,24 +1243,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1260,12 +1272,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1289,31 +1301,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
+      <c r="B4" s="40">
         <v>42590</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="38">
         <v>6.2</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1329,19 +1341,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1355,17 +1367,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1379,278 +1391,278 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="29">
+      <c r="B7" s="40">
         <v>42591</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="26" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="38">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="41"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="60"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="41"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="41"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="38"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="29">
+      <c r="B11" s="40">
         <v>42592</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="26" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="38">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="41"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="29">
+      <c r="B14" s="40">
         <v>42593</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="39">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="26" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="38">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="41"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="41"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="29">
+      <c r="B17" s="40">
         <v>42594</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="26" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="44">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="34" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="43"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="44"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1662,61 +1674,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="29">
+      <c r="B21" s="40">
         <v>42595</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="39">
         <v>6</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="41"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="45">
+      <c r="B24" s="47">
         <v>42596</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="29">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1728,970 +1740,970 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="26" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="38">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="31" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="41"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="41"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="41"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="41"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="41"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="34" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="41"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="34" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="41"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="29">
+      <c r="B33" s="40">
         <v>42597</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="39">
         <v>8</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="26" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="34" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="41"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="29">
+      <c r="B36" s="40">
         <v>42598</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="39">
         <v>9</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="26" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="38">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="34" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="41"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="34" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="41"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="34" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="41"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="29">
+      <c r="B40" s="40">
         <v>42599</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="26" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="38">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="34" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="41"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="41"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="29">
+      <c r="B43" s="40">
         <v>42600</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="39">
         <v>11</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="26" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="38">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="41"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="41"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="29">
+      <c r="B46" s="40">
         <v>42601</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="39">
         <v>12</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="26" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="26" t="s">
+      <c r="J46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="29">
+      <c r="B49" s="40">
         <v>42602</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="39">
         <v>13</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="26" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="J49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="41">
+      <c r="K49" s="38">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="41"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="41"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="29">
+      <c r="B52" s="40">
         <v>42603</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="39">
         <v>14</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="26" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="26" t="s">
+      <c r="J52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="38">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="34" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="41"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="34" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="41"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="29">
+      <c r="B55" s="40">
         <v>42604</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="39">
         <v>15</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="26" t="s">
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="41">
+      <c r="K55" s="38">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="34" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="41"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="41"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="29">
+      <c r="B58" s="40">
         <v>42605</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="39">
         <v>16</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="26" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="34" t="s">
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="41"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="41"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="29">
+      <c r="B61" s="40">
         <v>42606</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="39">
         <v>17</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="26" t="s">
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="26" t="s">
+      <c r="J61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="41">
+      <c r="K61" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="41"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="41"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="29">
+      <c r="B64" s="40">
         <v>42607</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="39">
         <v>18</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="26" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="26" t="s">
+      <c r="J64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="41">
+      <c r="K64" s="38">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="34" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="41"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="41"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="29">
+      <c r="B67" s="40">
         <v>42608</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="39">
         <v>19</v>
       </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="41"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="41"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="41"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="29">
+      <c r="B70" s="40">
         <v>42609</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="39">
         <v>20</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="26" t="s">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="41">
+      <c r="K70" s="38">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="41"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="41"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="29">
+      <c r="B73" s="40">
         <v>42610</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="39">
         <v>21</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="26" t="s">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="26" t="s">
+      <c r="J73" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="41">
+      <c r="K73" s="38">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="34" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="41"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="41"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="29">
+      <c r="B76" s="40">
         <v>42611</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="39">
         <v>22</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="26" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="26" t="s">
+      <c r="J76" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="41">
+      <c r="K76" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="34" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="41"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="41"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="45">
+      <c r="B79" s="47">
         <v>42612</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="29">
         <v>23</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="E79" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="26" t="s">
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="26" t="s">
+      <c r="J79" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="41">
+      <c r="K79" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="46"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="34" t="s">
+      <c r="B80" s="48"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="41"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="34" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="41"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="C82" s="28"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="56"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2701,168 +2713,386 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="29">
+      <c r="B83" s="40">
         <v>42613</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="30" t="s">
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="30" t="s">
+      <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="41">
+      <c r="K83" s="38">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="35" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="41"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="35" t="s">
+      <c r="B85" s="40"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="41"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="26" t="s">
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="27" t="s">
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="27" t="s">
+      <c r="J86" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="44">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="34" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="43"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="34" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="43"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="34" t="s">
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="43"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="34" t="s">
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="43"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="34" t="s">
+      <c r="B91" s="40"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="43"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="34" t="s">
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="44"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="46"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="E80:H80"/>
     <mergeCell ref="E81:H81"/>
     <mergeCell ref="I64:I66"/>
@@ -2887,224 +3117,6 @@
     <mergeCell ref="E72:H72"/>
     <mergeCell ref="J79:J81"/>
     <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3131,7 +3143,7 @@
   <dimension ref="B2:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3148,24 +3160,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3177,12 +3189,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3206,31 +3218,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
+      <c r="B4" s="40">
         <v>42614</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="26" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="38">
         <v>20</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3242,23 +3254,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-43.666666666666671</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3268,422 +3280,426 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>123.83333333333333</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="34" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-80.166666666666671</v>
+        <v>-101.5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="29">
+      <c r="B7" s="40">
         <v>42615</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="26" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="38">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
-        <v>123.83333333333333</v>
-      </c>
-      <c r="P7" s="62"/>
+        <v>134.5</v>
+      </c>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="34" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="41"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
-        <v>371.5</v>
-      </c>
-      <c r="P8" s="60"/>
+        <v>403.5</v>
+      </c>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="34" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="41"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="29">
+      <c r="B10" s="40">
         <v>42616</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="38">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="34" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="41"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="34" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="41"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="41"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="41"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="34" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="41"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="34" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="41"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="34" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="41"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="34" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="41"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="29">
+      <c r="B19" s="40">
         <v>42617</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="39">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="26" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="41"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="41"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="29">
+      <c r="B22" s="40">
         <v>42618</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="39">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="26" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="44">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="43"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="44"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="29">
+      <c r="B25" s="40">
         <v>42619</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="39">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="26" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="38">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="41"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="41"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="29">
+      <c r="B28" s="40">
         <v>42620</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="29">
         <v>7</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="63"/>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>122</v>
+      </c>
       <c r="F28" s="64"/>
       <c r="G28" s="64"/>
       <c r="H28" s="65"/>
@@ -3692,1111 +3708,1036 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="38">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="41"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="29">
+      <c r="B31" s="40">
         <v>42621</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="39">
         <v>8</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="41"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="41"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="41"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="29">
+      <c r="B34" s="40">
         <v>42622</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="39">
         <v>9</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="41"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="41"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="41"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="29">
+      <c r="B37" s="40">
         <v>42623</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="39">
         <v>10</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="41"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="41"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="41"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="29">
+      <c r="B40" s="40">
         <v>42624</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="39">
         <v>11</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="41"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="41"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="41"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="29">
+      <c r="B43" s="40">
         <v>42625</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="39">
         <v>12</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="41"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="41"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="41"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="29">
+      <c r="B46" s="40">
         <v>42626</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="39">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="41"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="41"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="41"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="29">
+      <c r="B49" s="40">
         <v>42627</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="39">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="41"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="41"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="41"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="29">
+      <c r="B52" s="40">
         <v>42628</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="39">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="41"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="41"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="41"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="29">
+      <c r="B55" s="40">
         <v>42629</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="39">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="41"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="41"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="41"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="29">
+      <c r="B58" s="40">
         <v>42630</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="39">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="41"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="41"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="41"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="29">
+      <c r="B61" s="40">
         <v>42631</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="39">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="41"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="41"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="41"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="29">
+      <c r="B64" s="40">
         <v>42632</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="39">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="41"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="41"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="41"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="29">
+      <c r="B67" s="40">
         <v>42633</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="39">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="41"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="41"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="41"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="29">
+      <c r="B70" s="40">
         <v>42634</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="39">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="41"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="41"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="41"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="29">
+      <c r="B73" s="40">
         <v>42635</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="39">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="41"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="41"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="41"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="29">
+      <c r="B76" s="40">
         <v>42636</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="39">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="41"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="41"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="41"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="29">
+      <c r="B79" s="40">
         <v>42637</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="39">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="41"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="41"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="41"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="29">
+      <c r="B82" s="40">
         <v>42638</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="39">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="41"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="38"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="41"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="41"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="29">
+      <c r="B85" s="40">
         <v>42639</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="39">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="41"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="30"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="41"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="38"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="41"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="29">
+      <c r="B88" s="40">
         <v>42640</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="39">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="41"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="41"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="41"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="29">
+      <c r="B91" s="40">
         <v>42641</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="39">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="41"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="41"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="38"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-      <c r="C93" s="30"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="41"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="29">
+      <c r="B94" s="40">
         <v>42642</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="39">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="41"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="41"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="29"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="41"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="38"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="29">
+      <c r="B97" s="40">
         <v>42643</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="39">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="41"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="38"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="29"/>
-      <c r="C98" s="30"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="41"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="C99" s="30"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="41"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4821,77 +4762,166 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="126">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>盐3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆角、藕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,6 +812,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +827,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,81 +912,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,24 +1247,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1272,12 +1276,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1301,13 +1305,13 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="29">
         <v>42590</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -1316,16 +1320,16 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="41">
         <v>6.2</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="41">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1341,19 +1345,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1367,17 +1371,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1391,10 +1395,10 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="29">
         <v>42591</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="30">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1406,29 +1410,29 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="41">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -1437,40 +1441,40 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="41"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="41"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1480,16 +1484,16 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="41"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
+      <c r="B11" s="29">
         <v>42592</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="30">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1501,20 +1505,20 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="41">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -1523,29 +1527,29 @@
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="38"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40">
+      <c r="B14" s="29">
         <v>42593</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="30">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1557,19 +1561,19 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="41">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
@@ -1579,30 +1583,30 @@
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="13"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="38"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40">
+      <c r="B17" s="29">
         <v>42594</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="30">
         <v>5</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -1611,33 +1615,33 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="42">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="45"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1647,13 +1651,13 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="46"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
@@ -1674,61 +1678,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="40">
+      <c r="B21" s="29">
         <v>42595</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="30">
         <v>6</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="38"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="38"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="26"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="38"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="47">
+      <c r="B24" s="45">
         <v>42596</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="31">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1740,9 +1744,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -1751,122 +1755,122 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="41">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="53" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="38"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="53" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="38"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="53" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="38"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="53" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="38"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="53" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="38"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="41"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="38"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="40">
+      <c r="B33" s="29">
         <v>42597</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="30">
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -1875,50 +1879,50 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="26" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="38"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="26"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="40">
+      <c r="B36" s="29">
         <v>42598</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="30">
         <v>9</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -1927,66 +1931,66 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="41">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="38"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="26" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="40">
+      <c r="B40" s="29">
         <v>42599</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="30">
         <v>10</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -1995,33 +1999,33 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="41">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="31"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="26" t="s">
         <v>60</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
@@ -2031,18 +2035,18 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="40">
+      <c r="B43" s="29">
         <v>42600</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="30">
         <v>11</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -2051,48 +2055,48 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="41">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="26"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="26"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="29">
         <v>42601</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="30">
         <v>12</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -2101,48 +2105,48 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="29" t="s">
+      <c r="I46" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="41">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="26"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="38"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="26"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="38"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="40">
+      <c r="B49" s="29">
         <v>42602</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="30">
         <v>13</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -2151,48 +2155,48 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="41">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="26"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="38"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="38"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="40">
+      <c r="B52" s="29">
         <v>42603</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="30">
         <v>14</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -2201,52 +2205,52 @@
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="29" t="s">
+      <c r="I52" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52" s="41">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="38"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
+      <c r="B55" s="29">
         <v>42604</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="30">
         <v>15</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -2255,100 +2259,100 @@
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="29" t="s">
+      <c r="I55" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="41">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="38"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="26"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="38"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
+      <c r="B58" s="29">
         <v>42605</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="30">
         <v>16</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="J58" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="38">
+      <c r="K58" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="38"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="26"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="38"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="B61" s="29">
         <v>42606</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="30">
         <v>17</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -2357,48 +2361,48 @@
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="29" t="s">
+      <c r="I61" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="29" t="s">
+      <c r="J61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="38">
+      <c r="K61" s="41">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="26"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="38"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="26"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="38"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
+      <c r="B64" s="29">
         <v>42607</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="30">
         <v>18</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -2407,90 +2411,90 @@
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="38">
+      <c r="K64" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="38"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="41"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="26"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="38"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+      <c r="B67" s="29">
         <v>42608</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="30">
         <v>19</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="26"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="38"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="26"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="38"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
       <c r="E69" s="26"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="38"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+      <c r="B70" s="29">
         <v>42609</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="30">
         <v>20</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="30" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -2499,48 +2503,48 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="J70" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="38">
+      <c r="K70" s="41">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="26"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="38"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="26"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="38"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="40">
+      <c r="B73" s="29">
         <v>42610</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="30">
         <v>21</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="30" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -2549,50 +2553,50 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="41">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="38"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="41"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="26"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="38"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
+      <c r="B76" s="29">
         <v>42611</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="30">
         <v>22</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="26" t="s">
@@ -2601,51 +2605,51 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="28"/>
-      <c r="I76" s="29" t="s">
+      <c r="I76" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="J76" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="38">
+      <c r="K76" s="41">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="26" t="s">
         <v>80</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="38"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="41"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="26"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="38"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="41"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="47">
+      <c r="B79" s="45">
         <v>42612</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="31">
         <v>23</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="26" t="s">
@@ -2654,56 +2658,56 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="28"/>
-      <c r="I79" s="29" t="s">
+      <c r="I79" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="29" t="s">
+      <c r="J79" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="38">
+      <c r="K79" s="41">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="48"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="39"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="38"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="41"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="48"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="39"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="26" t="s">
         <v>81</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="28"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="38"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="41"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="49"/>
-      <c r="C82" s="31"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="52"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2713,13 +2717,13 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="40">
+      <c r="B83" s="29">
         <v>42613</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="30">
         <v>24</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="27" t="s">
@@ -2728,181 +2732,341 @@
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
-      <c r="I83" s="39" t="s">
+      <c r="I83" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="38">
+      <c r="K83" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="30"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="32"/>
       <c r="E84" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="38"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="40"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="31"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="27" t="s">
         <v>84</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="38"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="41"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="29" t="s">
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="30" t="s">
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="30" t="s">
+      <c r="J86" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="44">
+      <c r="K86" s="42">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="30"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="32"/>
       <c r="E87" s="26" t="s">
         <v>90</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="28"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="45"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="43"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="40"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="30"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="32"/>
       <c r="E88" s="26" t="s">
         <v>91</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="28"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="45"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="43"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="30"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="26" t="s">
         <v>93</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="28"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="45"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="43"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="30"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="32"/>
       <c r="E90" s="26" t="s">
         <v>95</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="28"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="45"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="43"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="40"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="30"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="32"/>
       <c r="E91" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="28"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="45"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="43"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="31"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="28"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="46"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="44"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="I7:I10"/>
@@ -2927,196 +3091,36 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
     <mergeCell ref="I40:I42"/>
     <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E78:H78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3142,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3160,24 +3164,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3189,12 +3193,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3218,13 +3222,13 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="29">
         <v>42614</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -3233,16 +3237,16 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="41">
         <v>20</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="41">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3254,23 +3258,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-33</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3280,43 +3284,43 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>134.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-101.5</v>
+        <v>-107.5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="29">
         <v>42615</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -3325,74 +3329,74 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="41">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
-        <v>134.5</v>
-      </c>
-      <c r="P7" s="37"/>
+        <v>137.5</v>
+      </c>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="41"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
-        <v>403.5</v>
-      </c>
-      <c r="P8" s="35"/>
+        <v>412.5</v>
+      </c>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="41"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="B10" s="29">
         <v>42616</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="30">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -3401,133 +3405,133 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="41">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="26" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="38"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="26" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="26" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="38"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="26" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="26" t="s">
         <v>112</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="38"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="26" t="s">
         <v>113</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="38"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="26" t="s">
         <v>114</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="38"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="40">
+      <c r="B19" s="29">
         <v>42617</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="30">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3539,45 +3543,45 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="7"/>
       <c r="E20" s="26"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="7"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="38"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="40">
+      <c r="B22" s="29">
         <v>42618</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="30">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3589,19 +3593,19 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="42">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
@@ -3611,13 +3615,13 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="45"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
@@ -3627,15 +3631,15 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="46"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="44"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="40">
+      <c r="B25" s="29">
         <v>42619</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="30">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -3647,19 +3651,19 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="41">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
@@ -3669,13 +3673,13 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="7"/>
       <c r="E27" s="26" t="s">
         <v>120</v>
@@ -3683,15 +3687,15 @@
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="38"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="40">
+      <c r="B28" s="29">
         <v>42620</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="31">
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3708,8 +3712,8 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
@@ -3719,77 +3723,87 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="29" t="s">
+      <c r="I29" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="40">
+      <c r="B31" s="29">
         <v>42621</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="30">
         <v>8</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="26"/>
+      <c r="D31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="38"/>
+      <c r="I31" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="41">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="7"/>
       <c r="E32" s="26"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="38"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="7"/>
       <c r="E33" s="26"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="38"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="40">
+      <c r="B34" s="29">
         <v>42622</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="30">
         <v>9</v>
       </c>
       <c r="D34" s="7"/>
@@ -3797,39 +3811,39 @@
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="38"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="7"/>
       <c r="E35" s="26"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="7"/>
       <c r="E36" s="26"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="38"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="40">
+      <c r="B37" s="29">
         <v>42623</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="30">
         <v>10</v>
       </c>
       <c r="D37" s="7"/>
@@ -3837,39 +3851,39 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="38"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="7"/>
       <c r="E38" s="26"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="7"/>
       <c r="E39" s="26"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="40">
+      <c r="B40" s="29">
         <v>42624</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="30">
         <v>11</v>
       </c>
       <c r="D40" s="7"/>
@@ -3877,39 +3891,39 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="38"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="41"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="7"/>
       <c r="E41" s="26"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="41"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="7"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="40">
+      <c r="B43" s="29">
         <v>42625</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="30">
         <v>12</v>
       </c>
       <c r="D43" s="7"/>
@@ -3917,39 +3931,39 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="38"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="41"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="7"/>
       <c r="E44" s="26"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="41"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="7"/>
       <c r="E45" s="26"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="41"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="29">
         <v>42626</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="30">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
@@ -3957,39 +3971,39 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="38"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="41"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="7"/>
       <c r="E47" s="26"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="38"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="41"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="7"/>
       <c r="E48" s="26"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="38"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="41"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="40">
+      <c r="B49" s="29">
         <v>42627</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="30">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
@@ -3997,39 +4011,39 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="38"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="41"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="7"/>
       <c r="E50" s="26"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="38"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="41"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="7"/>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="38"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="40">
+      <c r="B52" s="29">
         <v>42628</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="30">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
@@ -4037,39 +4051,39 @@
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="38"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="41"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="7"/>
       <c r="E53" s="26"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="7"/>
       <c r="E54" s="26"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="38"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
+      <c r="B55" s="29">
         <v>42629</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="30">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
@@ -4077,39 +4091,39 @@
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="38"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="41"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="7"/>
       <c r="E56" s="26"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="38"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="41"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="7"/>
       <c r="E57" s="26"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="38"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="41"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
+      <c r="B58" s="29">
         <v>42630</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="30">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
@@ -4117,39 +4131,39 @@
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="38"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="41"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="7"/>
       <c r="E59" s="26"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="38"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="41"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="7"/>
       <c r="E60" s="26"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="38"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="41"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="B61" s="29">
         <v>42631</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="30">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
@@ -4157,39 +4171,39 @@
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="38"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="41"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="7"/>
       <c r="E62" s="26"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="38"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="41"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
       <c r="D63" s="7"/>
       <c r="E63" s="26"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="38"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="41"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
+      <c r="B64" s="29">
         <v>42632</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="30">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
@@ -4197,39 +4211,39 @@
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="38"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="41"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
       <c r="D65" s="7"/>
       <c r="E65" s="26"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="38"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="41"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
       <c r="D66" s="7"/>
       <c r="E66" s="26"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="38"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="41"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+      <c r="B67" s="29">
         <v>42633</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="30">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
@@ -4237,39 +4251,39 @@
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="38"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="41"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="7"/>
       <c r="E68" s="26"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="38"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="7"/>
       <c r="E69" s="26"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="38"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="41"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+      <c r="B70" s="29">
         <v>42634</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="30">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
@@ -4277,39 +4291,39 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="38"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="41"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="7"/>
       <c r="E71" s="26"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="38"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="41"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="7"/>
       <c r="E72" s="26"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="38"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="41"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="40">
+      <c r="B73" s="29">
         <v>42635</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="30">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
@@ -4317,39 +4331,39 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="38"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="41"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="7"/>
       <c r="E74" s="26"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="38"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="41"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="7"/>
       <c r="E75" s="26"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="38"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="41"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
+      <c r="B76" s="29">
         <v>42636</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="30">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
@@ -4357,39 +4371,39 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="38"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="41"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="30"/>
       <c r="D77" s="7"/>
       <c r="E77" s="26"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="38"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="41"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="7"/>
       <c r="E78" s="26"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="38"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="41"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="40">
+      <c r="B79" s="29">
         <v>42637</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="30">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
@@ -4397,39 +4411,39 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="38"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="41"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="40"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="30"/>
       <c r="D80" s="7"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="38"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="41"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="40"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="30"/>
       <c r="D81" s="7"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="38"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="41"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="40">
+      <c r="B82" s="29">
         <v>42638</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="30">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
@@ -4437,39 +4451,39 @@
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="38"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="41"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="40"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="30"/>
       <c r="D83" s="7"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="38"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="41"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="30"/>
       <c r="D84" s="7"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="38"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="40">
+      <c r="B85" s="29">
         <v>42639</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="30">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
@@ -4477,39 +4491,39 @@
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="38"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="41"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="7"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="38"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="41"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="30"/>
       <c r="D87" s="7"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="38"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="41"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="40">
+      <c r="B88" s="29">
         <v>42640</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="30">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
@@ -4517,39 +4531,39 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="38"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="41"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
       <c r="D89" s="7"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="38"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="41"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
       <c r="D90" s="7"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="38"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="41"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="40">
+      <c r="B91" s="29">
         <v>42641</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="30">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
@@ -4557,39 +4571,39 @@
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="38"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="41"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="7"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="38"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="41"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="40"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="7"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="38"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="41"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="40">
+      <c r="B94" s="29">
         <v>42642</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="30">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
@@ -4597,39 +4611,39 @@
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="38"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="41"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="40"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="7"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="38"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="41"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="40"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="7"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="38"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="41"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="40">
+      <c r="B97" s="29">
         <v>42643</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="30">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
@@ -4637,107 +4651,196 @@
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="38"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="41"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="40"/>
-      <c r="C98" s="39"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="7"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="38"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="41"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="40"/>
-      <c r="C99" s="39"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="7"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="38"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4762,166 +4865,77 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>豆角、藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花菜、冬瓜9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲子、石冰糖8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,20 +824,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -836,6 +905,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,72 +924,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1247,24 +1259,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1276,12 +1288,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1305,13 +1317,13 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
+      <c r="B4" s="40">
         <v>42590</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -1320,16 +1332,16 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="38">
         <v>6.2</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1345,19 +1357,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1371,17 +1383,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1395,10 +1407,10 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="29">
+      <c r="B7" s="40">
         <v>42591</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1410,29 +1422,29 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="38">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="26" t="s">
@@ -1441,40 +1453,40 @@
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="60"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="41"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
@@ -1484,16 +1496,16 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="41"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="38"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="29">
+      <c r="B11" s="40">
         <v>42592</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -1505,20 +1517,20 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="38">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="26" t="s">
@@ -1527,29 +1539,29 @@
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="41"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="41"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="29">
+      <c r="B14" s="40">
         <v>42593</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="39">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -1561,19 +1573,19 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="38">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
@@ -1583,30 +1595,30 @@
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="13"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="41"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="29">
+      <c r="B17" s="40">
         <v>42594</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -1615,33 +1627,33 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="44">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="43"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1651,13 +1663,13 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="44"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
@@ -1678,61 +1690,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="29">
+      <c r="B21" s="40">
         <v>42595</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="39">
         <v>6</v>
       </c>
-      <c r="D21" s="30"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="41"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="41"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="26"/>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="41"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="45">
+      <c r="B24" s="47">
         <v>42596</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="29">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1744,9 +1756,9 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="31" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="26" t="s">
@@ -1755,122 +1767,122 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="38">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="41"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="34" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="41"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="41"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="41"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="34" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="41"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="41"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="41"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="29">
+      <c r="B33" s="40">
         <v>42597</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="39">
         <v>8</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="26" t="s">
@@ -1879,50 +1891,50 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="26" t="s">
         <v>54</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="41"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="26"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="41"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="29">
+      <c r="B36" s="40">
         <v>42598</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="39">
         <v>9</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -1931,66 +1943,66 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="31" t="s">
+      <c r="I36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="38">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="41"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="41"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="26" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="41"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="29">
+      <c r="B40" s="40">
         <v>42599</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="26" t="s">
@@ -1999,33 +2011,33 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="38">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="26" t="s">
         <v>60</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="41"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
@@ -2035,18 +2047,18 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="41"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="29">
+      <c r="B43" s="40">
         <v>42600</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="39">
         <v>11</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="26" t="s">
@@ -2055,48 +2067,48 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="38">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="26"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="41"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="26"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="41"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="29">
+      <c r="B46" s="40">
         <v>42601</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="39">
         <v>12</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="26" t="s">
@@ -2105,48 +2117,48 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="26"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="41"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="26"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="41"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="29">
+      <c r="B49" s="40">
         <v>42602</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="39">
         <v>13</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E49" s="26" t="s">
@@ -2155,48 +2167,48 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="41">
+      <c r="K49" s="38">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="26"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="41"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="41"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="29">
+      <c r="B52" s="40">
         <v>42603</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="39">
         <v>14</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -2205,52 +2217,52 @@
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="31" t="s">
+      <c r="I52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="38">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="41"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="41"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="29">
+      <c r="B55" s="40">
         <v>42604</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="39">
         <v>15</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -2259,100 +2271,100 @@
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="41">
+      <c r="K55" s="38">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="26" t="s">
         <v>70</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="41"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="26"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="41"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="29">
+      <c r="B58" s="40">
         <v>42605</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="39">
         <v>16</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="31" t="s">
+      <c r="I58" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="31" t="s">
+      <c r="J58" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="41"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="26"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="41"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="29">
+      <c r="B61" s="40">
         <v>42606</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="39">
         <v>17</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -2361,48 +2373,48 @@
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="31" t="s">
+      <c r="I61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="31" t="s">
+      <c r="J61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="41">
+      <c r="K61" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="26"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="41"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="26"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="41"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="29">
+      <c r="B64" s="40">
         <v>42607</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="39">
         <v>18</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -2411,90 +2423,90 @@
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="31" t="s">
+      <c r="I64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="31" t="s">
+      <c r="J64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="41">
+      <c r="K64" s="38">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="26" t="s">
         <v>74</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="41"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
       <c r="E66" s="26"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="41"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="29">
+      <c r="B67" s="40">
         <v>42608</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="39">
         <v>19</v>
       </c>
-      <c r="D67" s="30"/>
+      <c r="D67" s="39"/>
       <c r="E67" s="26"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="41"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="26"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="41"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
       <c r="E69" s="26"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="41"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="29">
+      <c r="B70" s="40">
         <v>42609</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="39">
         <v>20</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="39" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -2503,48 +2515,48 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="31" t="s">
+      <c r="I70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="31" t="s">
+      <c r="J70" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="41">
+      <c r="K70" s="38">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
       <c r="E71" s="26"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="41"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
       <c r="E72" s="26"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="41"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="29">
+      <c r="B73" s="40">
         <v>42610</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="39">
         <v>21</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="39" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -2553,50 +2565,50 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="31" t="s">
+      <c r="I73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="31" t="s">
+      <c r="J73" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="41">
+      <c r="K73" s="38">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="41"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
       <c r="E75" s="26"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="41"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="29">
+      <c r="B76" s="40">
         <v>42611</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="39">
         <v>22</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="26" t="s">
@@ -2605,51 +2617,51 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="28"/>
-      <c r="I76" s="31" t="s">
+      <c r="I76" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="31" t="s">
+      <c r="J76" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="41">
+      <c r="K76" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="26" t="s">
         <v>80</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="41"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
       <c r="E78" s="26"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="41"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="45">
+      <c r="B79" s="47">
         <v>42612</v>
       </c>
-      <c r="C79" s="31">
+      <c r="C79" s="29">
         <v>23</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="26" t="s">
@@ -2658,56 +2670,56 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="28"/>
-      <c r="I79" s="31" t="s">
+      <c r="I79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="41">
+      <c r="K79" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="46"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="30"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="39"/>
       <c r="E80" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="28"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="41"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="30"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="39"/>
       <c r="E81" s="26" t="s">
         <v>81</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="28"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="41"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="C82" s="33"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="56"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2717,14 +2729,14 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="29">
+      <c r="B83" s="40">
         <v>42613</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D83" s="31" t="s">
-        <v>42</v>
+      <c r="D83" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="E83" s="27" t="s">
         <v>83</v>
@@ -2732,153 +2744,371 @@
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
-      <c r="I83" s="30" t="s">
+      <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="30" t="s">
+      <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="41">
+      <c r="K83" s="38">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="32"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="41"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="33"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="27" t="s">
         <v>84</v>
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="41"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="31" t="s">
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="32" t="s">
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="32" t="s">
+      <c r="J86" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="44">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="32"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="30"/>
       <c r="E87" s="26" t="s">
         <v>90</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="28"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="43"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="32"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="26" t="s">
         <v>91</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="28"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="43"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="32"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="30"/>
       <c r="E89" s="26" t="s">
         <v>93</v>
       </c>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="28"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="43"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="32"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="26" t="s">
         <v>95</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="28"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="43"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="32"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="30"/>
       <c r="E91" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="28"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="43"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="33"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="28"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="44"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="46"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="E80:H80"/>
     <mergeCell ref="E81:H81"/>
     <mergeCell ref="I64:I66"/>
@@ -2903,224 +3133,6 @@
     <mergeCell ref="E72:H72"/>
     <mergeCell ref="J79:J81"/>
     <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3146,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:K33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3164,24 +3176,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3193,12 +3205,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3222,13 +3234,13 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
+      <c r="B4" s="40">
         <v>42614</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="26" t="s">
@@ -3237,16 +3249,16 @@
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="38">
         <v>20</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3258,23 +3270,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-30</v>
+        <v>-19.666666666666657</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="26" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3284,43 +3296,43 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>137.5</v>
+        <v>147.83333333333334</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="33"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-107.5</v>
+        <v>-128.16666666666666</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="29">
+      <c r="B7" s="40">
         <v>42615</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="26" t="s">
@@ -3329,74 +3341,74 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="38">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
-        <v>137.5</v>
-      </c>
-      <c r="P7" s="62"/>
+        <v>147.83333333333334</v>
+      </c>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
-        <v>412.5</v>
-      </c>
-      <c r="P8" s="60"/>
+        <v>443.5</v>
+      </c>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="41"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="29">
+      <c r="B10" s="40">
         <v>42616</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -3405,133 +3417,133 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="38">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="26" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="41"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="41"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="26" t="s">
         <v>109</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="41"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="26" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="41"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="26" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="26" t="s">
         <v>112</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="41"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="26" t="s">
         <v>113</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="41"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="26" t="s">
         <v>114</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="41"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="29">
+      <c r="B19" s="40">
         <v>42617</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="39">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -3543,45 +3555,45 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7"/>
       <c r="E20" s="26"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="7"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="41"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="29">
+      <c r="B22" s="40">
         <v>42618</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="39">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3593,19 +3605,19 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="44">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
@@ -3615,13 +3627,13 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="43"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
@@ -3631,15 +3643,15 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="44"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="29">
+      <c r="B25" s="40">
         <v>42619</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="39">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -3651,19 +3663,19 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="31" t="s">
+      <c r="J25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="38">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
@@ -3673,13 +3685,13 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="41"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7"/>
       <c r="E27" s="26" t="s">
         <v>120</v>
@@ -3687,15 +3699,15 @@
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="41"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="29">
+      <c r="B28" s="40">
         <v>42620</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="29">
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3712,8 +3724,8 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="29"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
@@ -3723,37 +3735,37 @@
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="38">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="41"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="29">
+      <c r="B31" s="40">
         <v>42621</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="39">
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -3765,85 +3777,103 @@
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="7"/>
       <c r="E32" s="26"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="41"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="7"/>
       <c r="E33" s="26"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="41"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="29">
+      <c r="B34" s="40">
         <v>42622</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="39">
         <v>9</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>126</v>
+      </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="41"/>
+      <c r="I34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="38">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="41"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="41"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="29">
+      <c r="B37" s="40">
         <v>42623</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="39">
         <v>10</v>
       </c>
       <c r="D37" s="7"/>
@@ -3851,39 +3881,39 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="41"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="7"/>
       <c r="E38" s="26"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="41"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="7"/>
       <c r="E39" s="26"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="41"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="29">
+      <c r="B40" s="40">
         <v>42624</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="39">
         <v>11</v>
       </c>
       <c r="D40" s="7"/>
@@ -3891,39 +3921,39 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="41"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="7"/>
       <c r="E41" s="26"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="41"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="7"/>
       <c r="E42" s="26"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="41"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="29">
+      <c r="B43" s="40">
         <v>42625</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="39">
         <v>12</v>
       </c>
       <c r="D43" s="7"/>
@@ -3931,39 +3961,39 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="41"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="7"/>
       <c r="E44" s="26"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="41"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="7"/>
       <c r="E45" s="26"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="41"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="29">
+      <c r="B46" s="40">
         <v>42626</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="39">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
@@ -3971,39 +4001,39 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="41"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="7"/>
       <c r="E47" s="26"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="41"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="7"/>
       <c r="E48" s="26"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="41"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="29">
+      <c r="B49" s="40">
         <v>42627</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="39">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
@@ -4011,39 +4041,39 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="41"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="7"/>
       <c r="E50" s="26"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="41"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="7"/>
       <c r="E51" s="26"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="41"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="29">
+      <c r="B52" s="40">
         <v>42628</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="39">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
@@ -4051,39 +4081,39 @@
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="41"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="7"/>
       <c r="E53" s="26"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="41"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="7"/>
       <c r="E54" s="26"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="41"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="29">
+      <c r="B55" s="40">
         <v>42629</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="39">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
@@ -4091,39 +4121,39 @@
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="41"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="7"/>
       <c r="E56" s="26"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="41"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="7"/>
       <c r="E57" s="26"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="41"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="29">
+      <c r="B58" s="40">
         <v>42630</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="39">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
@@ -4131,39 +4161,39 @@
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="41"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="7"/>
       <c r="E59" s="26"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="41"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="7"/>
       <c r="E60" s="26"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="41"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="29">
+      <c r="B61" s="40">
         <v>42631</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="39">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
@@ -4171,39 +4201,39 @@
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="41"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="7"/>
       <c r="E62" s="26"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="41"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="7"/>
       <c r="E63" s="26"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="41"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="29">
+      <c r="B64" s="40">
         <v>42632</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="39">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
@@ -4211,39 +4241,39 @@
       <c r="F64" s="27"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="41"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="7"/>
       <c r="E65" s="26"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="41"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="7"/>
       <c r="E66" s="26"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="41"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="29">
+      <c r="B67" s="40">
         <v>42633</v>
       </c>
-      <c r="C67" s="30">
+      <c r="C67" s="39">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
@@ -4251,39 +4281,39 @@
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="41"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="7"/>
       <c r="E68" s="26"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="41"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="7"/>
       <c r="E69" s="26"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="41"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="29">
+      <c r="B70" s="40">
         <v>42634</v>
       </c>
-      <c r="C70" s="30">
+      <c r="C70" s="39">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
@@ -4291,39 +4321,39 @@
       <c r="F70" s="27"/>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="41"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="7"/>
       <c r="E71" s="26"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="41"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="7"/>
       <c r="E72" s="26"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="41"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="29">
+      <c r="B73" s="40">
         <v>42635</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="39">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
@@ -4331,39 +4361,39 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="41"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="7"/>
       <c r="E74" s="26"/>
       <c r="F74" s="27"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="41"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="7"/>
       <c r="E75" s="26"/>
       <c r="F75" s="27"/>
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="41"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="29">
+      <c r="B76" s="40">
         <v>42636</v>
       </c>
-      <c r="C76" s="30">
+      <c r="C76" s="39">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
@@ -4371,39 +4401,39 @@
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
       <c r="H76" s="28"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="41"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="7"/>
       <c r="E77" s="26"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="41"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="7"/>
       <c r="E78" s="26"/>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="41"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="29">
+      <c r="B79" s="40">
         <v>42637</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="39">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
@@ -4411,39 +4441,39 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="41"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="7"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
       <c r="H80" s="27"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="41"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="7"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="41"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="29">
+      <c r="B82" s="40">
         <v>42638</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="39">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
@@ -4451,39 +4481,39 @@
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="41"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="38"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="7"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="41"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="7"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="41"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="29">
+      <c r="B85" s="40">
         <v>42639</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="39">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
@@ -4491,39 +4521,39 @@
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="41"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-      <c r="C86" s="30"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="7"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="41"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="38"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="7"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="41"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="29">
+      <c r="B88" s="40">
         <v>42640</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="39">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
@@ -4531,39 +4561,39 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="41"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="7"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="41"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="7"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
       <c r="H90" s="27"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="41"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="29">
+      <c r="B91" s="40">
         <v>42641</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="39">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
@@ -4571,39 +4601,39 @@
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="41"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="7"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="41"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="38"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-      <c r="C93" s="30"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="7"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
       <c r="H93" s="27"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="41"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="29">
+      <c r="B94" s="40">
         <v>42642</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="39">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
@@ -4611,39 +4641,39 @@
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
       <c r="H94" s="27"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="41"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="7"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="27"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="41"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="29"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="7"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="27"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="41"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="38"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="29">
+      <c r="B97" s="40">
         <v>42643</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="39">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
@@ -4651,196 +4681,107 @@
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
       <c r="H97" s="27"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="41"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="38"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="29"/>
-      <c r="C98" s="30"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="7"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="41"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="C99" s="30"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="7"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="41"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4865,77 +4806,166 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,14 @@
   </si>
   <si>
     <t>莲子、石冰糖8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油、奶粉、披萨、鸭、零食、香肠菜、牙膏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,6 +823,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -833,6 +844,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -849,81 +932,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,24 +1267,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1288,12 +1296,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1317,31 +1325,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>42590</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="40">
         <v>6.2</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="40">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1357,19 +1365,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1383,17 +1391,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1407,278 +1415,278 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <v>42591</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="40">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="40"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="40"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
+      <c r="B11" s="41">
         <v>42592</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="26">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="40">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="38"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40">
+      <c r="B14" s="41">
         <v>42593</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="26">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="40">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="38"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="38"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40">
+      <c r="B17" s="41">
         <v>42594</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="26">
         <v>5</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="42">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="45"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="46"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1690,61 +1698,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="40">
+      <c r="B21" s="41">
         <v>42595</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="26">
         <v>6</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="38"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="47">
+      <c r="B24" s="45">
         <v>42596</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="30">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1756,970 +1764,970 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="40">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="53" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="38"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="53" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="38"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="53" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="38"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="53" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="38"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="53" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="26" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="38"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="26" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="38"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="40">
+      <c r="B33" s="41">
         <v>42597</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="26">
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="26" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="38"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="40">
+      <c r="B36" s="41">
         <v>42598</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="26">
         <v>9</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29" t="s">
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="40">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="26" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="38"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="26" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="26" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="40">
+      <c r="B40" s="41">
         <v>42599</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="26">
         <v>10</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="40">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="26" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="40">
+      <c r="B43" s="41">
         <v>42600</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="26">
         <v>11</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29" t="s">
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="40">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="41">
         <v>42601</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="26">
         <v>12</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29" t="s">
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="38"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="38"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="40">
+      <c r="B49" s="41">
         <v>42602</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="26">
         <v>13</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29" t="s">
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="40">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>42603</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="26">
         <v>14</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29" t="s">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52" s="40">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="26" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="26" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="38"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
+      <c r="B55" s="41">
         <v>42604</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="26">
         <v>15</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29" t="s">
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="40">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="26" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="38"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="38"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
+      <c r="B58" s="41">
         <v>42605</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="26">
         <v>16</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29" t="s">
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="J58" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="38">
+      <c r="K58" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="26" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="38"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="38"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="B61" s="41">
         <v>42606</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="26">
         <v>17</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29" t="s">
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="29" t="s">
+      <c r="J61" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="38">
+      <c r="K61" s="40">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="38"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="38"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
+      <c r="B64" s="41">
         <v>42607</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="26">
         <v>18</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29" t="s">
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="38">
+      <c r="K64" s="40">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="26" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="38"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="38"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+      <c r="B67" s="41">
         <v>42608</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="26">
         <v>19</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="38"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="38"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="38"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+      <c r="B70" s="41">
         <v>42609</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="26">
         <v>20</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29" t="s">
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="J70" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="38">
+      <c r="K70" s="40">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="38"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="38"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="40">
+      <c r="B73" s="41">
         <v>42610</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="26">
         <v>21</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29" t="s">
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="40">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="26" t="s">
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="38"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="38"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>42611</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="26">
         <v>22</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29" t="s">
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="J76" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="38">
+      <c r="K76" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="26" t="s">
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="38"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="40"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="38"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="47">
+      <c r="B79" s="45">
         <v>42612</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="30">
         <v>23</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29" t="s">
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="29" t="s">
+      <c r="J79" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="38">
+      <c r="K79" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="48"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="26" t="s">
+      <c r="B80" s="46"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="38"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="48"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="26" t="s">
+      <c r="B81" s="46"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="38"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="49"/>
-      <c r="C82" s="31"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="52"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2729,196 +2737,358 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="40">
+      <c r="B83" s="41">
         <v>42613</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="26">
         <v>24</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="39" t="s">
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="38">
+      <c r="K83" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="27" t="s">
+      <c r="B84" s="41"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="38"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="40"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="27" t="s">
+      <c r="B85" s="41"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="38"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="29" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="30" t="s">
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="30" t="s">
+      <c r="J86" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="44">
+      <c r="K86" s="42">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="26" t="s">
+      <c r="B87" s="41"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="45"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="43"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="40"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="26" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="45"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="43"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="26" t="s">
+      <c r="B89" s="41"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="45"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="43"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="26" t="s">
+      <c r="B90" s="41"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="45"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="43"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="40"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="26" t="s">
+      <c r="B91" s="41"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="45"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="43"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="26" t="s">
+      <c r="B92" s="41"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="46"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="44"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="I7:I10"/>
@@ -2943,196 +3113,34 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3158,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34:K36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S35" sqref="S34:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3176,24 +3184,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3205,12 +3213,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3234,31 +3242,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>42614</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="40">
         <v>20</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="40">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3270,23 +3278,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>-19.666666666666657</v>
+        <v>69.333333333333343</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3296,418 +3304,418 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>147.83333333333334</v>
+        <v>236.83333333333334</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>276</v>
+        <v>543</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-128.16666666666666</v>
+        <v>-306.16666666666663</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <v>42615</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="40">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
-        <v>147.83333333333334</v>
-      </c>
-      <c r="P7" s="37"/>
+        <v>236.83333333333334</v>
+      </c>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
-        <v>443.5</v>
-      </c>
-      <c r="P8" s="35"/>
+        <v>710.5</v>
+      </c>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="40"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="B10" s="41">
         <v>42616</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="40">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="38"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="26" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="38"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="38"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="38"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="38"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="38"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="40">
+      <c r="B19" s="41">
         <v>42617</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="26">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="38"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="38"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="40">
+      <c r="B22" s="41">
         <v>42618</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="26">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="42">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="46"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="44"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="40">
+      <c r="B25" s="41">
         <v>42619</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="26">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="40">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="38"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="38"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="40">
+      <c r="B28" s="41">
         <v>42620</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="30">
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3724,1064 +3732,1167 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="40">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="40">
+      <c r="B31" s="41">
         <v>42621</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="26">
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="38"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="38"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="40">
+      <c r="B34" s="41">
         <v>42622</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="26">
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29" t="s">
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="38"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="38"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="40">
+      <c r="B37" s="41">
         <v>42623</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="26">
         <v>10</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="38"/>
+      <c r="D37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="40">
+        <v>267</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="40">
+      <c r="B40" s="41">
         <v>42624</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="26">
         <v>11</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="38"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="40">
+      <c r="B43" s="41">
         <v>42625</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="26">
         <v>12</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="38"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="40"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="41">
         <v>42626</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="26">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="38"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="38"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="38"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="40">
+      <c r="B49" s="41">
         <v>42627</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="26">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="38"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="38"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="38"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>42628</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="26">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="38"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="38"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
+      <c r="B55" s="41">
         <v>42629</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="26">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="38"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="38"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="38"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
+      <c r="B58" s="41">
         <v>42630</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="26">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="38"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="38"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="38"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="B61" s="41">
         <v>42631</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="26">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="38"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="38"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="38"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
+      <c r="B64" s="41">
         <v>42632</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="26">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="38"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="38"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="38"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+      <c r="B67" s="41">
         <v>42633</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="26">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="38"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="38"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="38"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+      <c r="B70" s="41">
         <v>42634</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="26">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="38"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="38"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="38"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="40">
+      <c r="B73" s="41">
         <v>42635</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="26">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="38"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="40"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="38"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="38"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>42636</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="26">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="38"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="40"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="38"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="40"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="38"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="40">
+      <c r="B79" s="41">
         <v>42637</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="26">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="38"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="40"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="40"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="38"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="40"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="38"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="40">
+      <c r="B82" s="41">
         <v>42638</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="26">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="38"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="40"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="40"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="38"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="40"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="38"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="40">
+      <c r="B85" s="41">
         <v>42639</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="26">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="38"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="38"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="38"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="40"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="40">
+      <c r="B88" s="41">
         <v>42640</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="26">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="38"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="40"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="38"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="38"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="40"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="40">
+      <c r="B91" s="41">
         <v>42641</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="26">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="38"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="40"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="38"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="40"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="38"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="40">
+      <c r="B94" s="41">
         <v>42642</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="26">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="38"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="40"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="38"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="40"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="38"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="40"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="40">
+      <c r="B97" s="41">
         <v>42643</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="26">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="38"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="40"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="40"/>
-      <c r="C98" s="39"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="38"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="40"/>
-      <c r="C99" s="39"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="38"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4806,166 +4917,77 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="133">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,14 @@
   </si>
   <si>
     <t>油、奶粉、披萨、鸭、零食、香肠菜、牙膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早点13.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸盆、酸奶、啤酒一罐25.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,26 +831,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -853,6 +921,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,75 +940,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,24 +1275,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1296,12 +1304,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1325,31 +1333,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>42590</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <v>6.2</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1365,19 +1373,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1391,17 +1399,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1415,278 +1423,278 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>42591</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="60"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="40"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="40"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="38"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>42592</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="38">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="40"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="40"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>42593</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="39">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="38">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="40"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="40"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>42594</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="44">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="43"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="44"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1698,61 +1706,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="41">
+      <c r="B21" s="40">
         <v>42595</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="39">
         <v>6</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="45">
+      <c r="B24" s="47">
         <v>42596</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1764,970 +1772,970 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="38">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="33" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="40"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="40"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="40"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="40"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="27" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="40"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="27" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="40"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="41">
+      <c r="B33" s="40">
         <v>42597</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="39">
         <v>8</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="40"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="41">
+      <c r="B36" s="40">
         <v>42598</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="39">
         <v>9</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="38">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="40"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="40"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="40"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="41">
+      <c r="B40" s="40">
         <v>42599</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="38">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="27" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="40"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="40"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>42600</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="39">
         <v>11</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="38">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>42601</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="39">
         <v>12</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="41"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>42602</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="39">
         <v>13</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="J49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="38">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="41"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="41">
+      <c r="B52" s="40">
         <v>42603</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="39">
         <v>14</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="J52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K52" s="38">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="40"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="40"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="41">
+      <c r="B55" s="40">
         <v>42604</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="39">
         <v>15</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30" t="s">
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="30" t="s">
+      <c r="J55" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="40">
+      <c r="K55" s="38">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="40"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+      <c r="B58" s="40">
         <v>42605</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="39">
         <v>16</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="30" t="s">
+      <c r="J58" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="40">
+      <c r="K58" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27" t="s">
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="40"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="41">
+      <c r="B61" s="40">
         <v>42606</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="39">
         <v>17</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30" t="s">
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="30" t="s">
+      <c r="J61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="40">
+      <c r="K61" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="41">
+      <c r="B64" s="40">
         <v>42607</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="39">
         <v>18</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="40">
+      <c r="K64" s="38">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="40"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="41">
+      <c r="B67" s="40">
         <v>42608</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="39">
         <v>19</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="40"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="41"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="41">
+      <c r="B70" s="40">
         <v>42609</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="39">
         <v>20</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30" t="s">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="30" t="s">
+      <c r="J70" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="38">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="41"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="41">
+      <c r="B73" s="40">
         <v>42610</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="39">
         <v>21</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30" t="s">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="30" t="s">
+      <c r="J73" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="38">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="40"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="41">
+      <c r="B76" s="40">
         <v>42611</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="39">
         <v>22</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="30" t="s">
+      <c r="J76" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="40">
+      <c r="K76" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="41"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="27" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="40"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="41"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="45">
+      <c r="B79" s="47">
         <v>42612</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="29">
         <v>23</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30" t="s">
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="30" t="s">
+      <c r="J79" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="40">
+      <c r="K79" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="46"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27" t="s">
+      <c r="B80" s="48"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="40"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="40"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="C82" s="32"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="56"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2737,168 +2745,386 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="41">
+      <c r="B83" s="40">
         <v>42613</v>
       </c>
-      <c r="C83" s="26">
+      <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="26" t="s">
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="26" t="s">
+      <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="40">
+      <c r="K83" s="38">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="28" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="40"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="41"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="28" t="s">
+      <c r="B85" s="40"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="40"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="30" t="s">
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="31" t="s">
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="44">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="27" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="43"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="41"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="27" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="43"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="27" t="s">
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="43"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="41"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="27" t="s">
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="43"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="41"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="27" t="s">
+      <c r="B91" s="40"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="43"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="41"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="27" t="s">
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="44"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="46"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="E80:H80"/>
     <mergeCell ref="E81:H81"/>
     <mergeCell ref="I64:I66"/>
@@ -2923,224 +3149,6 @@
     <mergeCell ref="E72:H72"/>
     <mergeCell ref="J79:J81"/>
     <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3166,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S35" sqref="S34:S35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3184,24 +3192,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3213,12 +3221,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3242,31 +3250,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>42614</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <v>20</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3278,49 +3286,49 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>69.333333333333343</v>
+        <v>82.333333333333343</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="17">
         <f>SUMPRODUCT((I4:I99="黄亮")*K4:K99)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>236.83333333333334</v>
+        <v>210.83333333333334</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
@@ -3330,392 +3338,392 @@
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-306.16666666666663</v>
+        <v>-293.16666666666663</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>42615</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
-        <v>236.83333333333334</v>
-      </c>
-      <c r="P7" s="62"/>
+        <v>249.83333333333334</v>
+      </c>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
-        <v>710.5</v>
-      </c>
-      <c r="P8" s="60"/>
+        <v>749.5</v>
+      </c>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="40"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>42616</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="38">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="27" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="40"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="27" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="40"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="40"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="27" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="40"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="27" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="40"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="40"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="27" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="40"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="40"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>42617</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="39">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="40"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="40"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="41">
+      <c r="B22" s="40">
         <v>42618</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="39">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="44">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="43"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="44"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>42619</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="39">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="38">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="40"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="40"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>42620</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3732,1167 +3740,1092 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="38">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <v>42621</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="39">
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="40"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="40"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="41">
+      <c r="B34" s="40">
         <v>42622</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="39">
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="38">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="40"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="41">
+      <c r="B37" s="40">
         <v>42623</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="39">
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30" t="s">
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="38">
         <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="40"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="40"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="41">
+      <c r="B40" s="40">
         <v>42624</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="39">
         <v>11</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="40"/>
+      <c r="D40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="38">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="40"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>42625</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="39">
         <v>12</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="40"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="40"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="40"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>42626</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="39">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="40"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="40"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="41"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="40"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>42627</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="39">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="40"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="40"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="41"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="40"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="41">
+      <c r="B52" s="40">
         <v>42628</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="39">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="40"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="40"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="40"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="41">
+      <c r="B55" s="40">
         <v>42629</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="39">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="40"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="40"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="40"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+      <c r="B58" s="40">
         <v>42630</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="39">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="40"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="40"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="40"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="41">
+      <c r="B61" s="40">
         <v>42631</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="39">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="40"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="26"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="40"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="40"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="41">
+      <c r="B64" s="40">
         <v>42632</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="39">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="40"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="40"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
-      <c r="C66" s="26"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="40"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="41">
+      <c r="B67" s="40">
         <v>42633</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="39">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="40"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
-      <c r="C68" s="26"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="40"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="41"/>
-      <c r="C69" s="26"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="40"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="41">
+      <c r="B70" s="40">
         <v>42634</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="39">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="40"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="40"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="41"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="40"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="41">
+      <c r="B73" s="40">
         <v>42635</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="39">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="40"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
-      <c r="C74" s="26"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="40"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="40"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="41">
+      <c r="B76" s="40">
         <v>42636</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="39">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="40"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="41"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="40"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="41"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="40"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="41">
+      <c r="B79" s="40">
         <v>42637</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="39">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="40"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="41"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="40"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="41"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="40"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="41">
+      <c r="B82" s="40">
         <v>42638</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="39">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="40"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="38"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="40"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
-      <c r="C84" s="26"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="40"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="41">
+      <c r="B85" s="40">
         <v>42639</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="39">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="40"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="26"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="40"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="38"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="40"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="41">
+      <c r="B88" s="40">
         <v>42640</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="39">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="40"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="40"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="41"/>
-      <c r="C90" s="26"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="40"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="41">
+      <c r="B91" s="40">
         <v>42641</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="39">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="40"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="41"/>
-      <c r="C92" s="26"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="40"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="38"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="41"/>
-      <c r="C93" s="26"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="40"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="41">
+      <c r="B94" s="40">
         <v>42642</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="39">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="40"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="41"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="40"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="41"/>
-      <c r="C96" s="26"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="40"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="38"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="41">
+      <c r="B97" s="40">
         <v>42643</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="39">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="40"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="38"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="41"/>
-      <c r="C98" s="26"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="40"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="41"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="40"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4917,77 +4850,166 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,6 +533,14 @@
   </si>
   <si>
     <t>脸盆、酸奶、啤酒一罐25.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜、笋瓜、大蒜、糖11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,6 +839,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -849,6 +860,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,81 +948,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,24 +1283,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1304,12 +1312,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1333,31 +1341,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>42590</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="40">
         <v>6.2</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="40">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1373,19 +1381,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1399,17 +1407,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1423,278 +1431,278 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <v>42591</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="40">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="40"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="40"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
+      <c r="B11" s="41">
         <v>42592</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="26">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="40">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="38"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40">
+      <c r="B14" s="41">
         <v>42593</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="26">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="40">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="38"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="38"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40">
+      <c r="B17" s="41">
         <v>42594</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="26">
         <v>5</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="42">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="45"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="46"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1706,61 +1714,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="40">
+      <c r="B21" s="41">
         <v>42595</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="26">
         <v>6</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="38"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="47">
+      <c r="B24" s="45">
         <v>42596</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="30">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1772,970 +1780,970 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="40">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="53" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="38"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="53" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="38"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="48"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="53" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="38"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="53" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="38"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="53" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="26" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="38"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="49"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="26" t="s">
+      <c r="B32" s="47"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="38"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="40">
+      <c r="B33" s="41">
         <v>42597</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="26">
         <v>8</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="26" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="38"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="40">
+      <c r="B36" s="41">
         <v>42598</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="26">
         <v>9</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29" t="s">
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="40">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="26" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="38"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="26" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="26" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="40">
+      <c r="B40" s="41">
         <v>42599</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="26">
         <v>10</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="40">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="26" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="40">
+      <c r="B43" s="41">
         <v>42600</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="26">
         <v>11</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29" t="s">
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="40">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="41">
         <v>42601</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="26">
         <v>12</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29" t="s">
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="38"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="38"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="40">
+      <c r="B49" s="41">
         <v>42602</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="26">
         <v>13</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29" t="s">
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="40">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>42603</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="26">
         <v>14</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29" t="s">
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52" s="40">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="26" t="s">
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="26" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="38"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
+      <c r="B55" s="41">
         <v>42604</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="26">
         <v>15</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29" t="s">
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="29" t="s">
+      <c r="J55" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="40">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="26" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="38"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="38"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
+      <c r="B58" s="41">
         <v>42605</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="26">
         <v>16</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29" t="s">
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="29" t="s">
+      <c r="J58" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="38">
+      <c r="K58" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="26" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="38"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="38"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="B61" s="41">
         <v>42606</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="26">
         <v>17</v>
       </c>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29" t="s">
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="29" t="s">
+      <c r="J61" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="38">
+      <c r="K61" s="40">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="38"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="38"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
+      <c r="B64" s="41">
         <v>42607</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="26">
         <v>18</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29" t="s">
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="29" t="s">
+      <c r="J64" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="38">
+      <c r="K64" s="40">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="26" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="38"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="38"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+      <c r="B67" s="41">
         <v>42608</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="26">
         <v>19</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="38"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="38"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="38"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+      <c r="B70" s="41">
         <v>42609</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="26">
         <v>20</v>
       </c>
-      <c r="D70" s="39" t="s">
+      <c r="D70" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29" t="s">
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="J70" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="38">
+      <c r="K70" s="40">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="38"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="38"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="40">
+      <c r="B73" s="41">
         <v>42610</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="26">
         <v>21</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29" t="s">
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="J73" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="38">
+      <c r="K73" s="40">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="26" t="s">
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="38"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="38"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>42611</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="26">
         <v>22</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="E76" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29" t="s">
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="J76" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="38">
+      <c r="K76" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="26" t="s">
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="38"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="40"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="38"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="47">
+      <c r="B79" s="45">
         <v>42612</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="30">
         <v>23</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29" t="s">
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="29" t="s">
+      <c r="J79" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="38">
+      <c r="K79" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="48"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="26" t="s">
+      <c r="B80" s="46"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="38"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="48"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="26" t="s">
+      <c r="B81" s="46"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="38"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="49"/>
-      <c r="C82" s="31"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="32"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="50" t="s">
+      <c r="E82" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="51"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="52"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="56"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2745,196 +2753,358 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="40">
+      <c r="B83" s="41">
         <v>42613</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="26">
         <v>24</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="39" t="s">
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="39" t="s">
+      <c r="J83" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="38">
+      <c r="K83" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="27" t="s">
+      <c r="B84" s="41"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="38"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="40"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="27" t="s">
+      <c r="B85" s="41"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="38"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="29" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="30" t="s">
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="30" t="s">
+      <c r="J86" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="44">
+      <c r="K86" s="42">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="26" t="s">
+      <c r="B87" s="41"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="45"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="43"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="40"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="26" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="45"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="43"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="26" t="s">
+      <c r="B89" s="41"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="45"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="43"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="26" t="s">
+      <c r="B90" s="41"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="45"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="43"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="40"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="26" t="s">
+      <c r="B91" s="41"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="45"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="43"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="26" t="s">
+      <c r="B92" s="41"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="46"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="44"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="I7:I10"/>
@@ -2959,196 +3129,34 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3174,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3192,24 +3200,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3221,12 +3229,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3250,31 +3258,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>42614</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="40">
         <v>20</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="40">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3286,23 +3294,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>82.333333333333343</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3312,418 +3320,418 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>210.83333333333334</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-293.16666666666663</v>
+        <v>-316.5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <v>42615</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="40">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
-        <v>249.83333333333334</v>
-      </c>
-      <c r="P7" s="37"/>
+        <v>261.5</v>
+      </c>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
-        <v>749.5</v>
-      </c>
-      <c r="P8" s="35"/>
+        <v>784.5</v>
+      </c>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="40"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="B10" s="41">
         <v>42616</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="26">
         <v>3</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="40">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="38"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="38"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="38"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="26" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="38"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="38"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="38"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="38"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="38"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="40">
+      <c r="B19" s="41">
         <v>42617</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="26">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="38"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="38"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="40">
+      <c r="B22" s="41">
         <v>42618</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="26">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="44">
+      <c r="K22" s="42">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="46"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="44"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="40">
+      <c r="B25" s="41">
         <v>42619</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="26">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="40">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="38"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="38"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="40">
+      <c r="B28" s="41">
         <v>42620</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="30">
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3740,1092 +3748,1195 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="40">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="40"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="38"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="40">
+      <c r="B31" s="41">
         <v>42621</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="26">
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="38"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="38"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="40">
+      <c r="B34" s="41">
         <v>42622</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="26">
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29" t="s">
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="38"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="38"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="40">
+      <c r="B37" s="41">
         <v>42623</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="26">
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29" t="s">
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="29" t="s">
+      <c r="J37" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="40">
         <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="38"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="38"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="40">
+      <c r="B40" s="41">
         <v>42624</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="26">
         <v>11</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="40">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="38"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="40"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="38"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="40"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="40">
+      <c r="B43" s="41">
         <v>42625</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="26">
         <v>12</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="38"/>
+      <c r="D43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="40">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="40"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="38"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="40"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="40">
+      <c r="B46" s="41">
         <v>42626</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="26">
         <v>13</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="38"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="40"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="38"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="38"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="40">
+      <c r="B49" s="41">
         <v>42627</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="26">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="38"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="40"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="40"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="38"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="40"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="40"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="38"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="40"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="40">
+      <c r="B52" s="41">
         <v>42628</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="26">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="38"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="40"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="40"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="38"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="40"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
+      <c r="B55" s="41">
         <v>42629</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="26">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="38"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="40"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="38"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="40"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="40"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="38"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="40"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
+      <c r="B58" s="41">
         <v>42630</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="26">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="38"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="40"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="40"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="38"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="40"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="40"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="38"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="40"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="B61" s="41">
         <v>42631</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="26">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="38"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="40"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="40"/>
-      <c r="C62" s="39"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="38"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="40"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="40"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="38"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="40"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
+      <c r="B64" s="41">
         <v>42632</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="26">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="38"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="40"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="38"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="40"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="40"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="38"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="40"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
+      <c r="B67" s="41">
         <v>42633</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="26">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="38"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="40"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="38"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="40"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="38"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
+      <c r="B70" s="41">
         <v>42634</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="26">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="38"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="40"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="38"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="40"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="40"/>
-      <c r="C72" s="39"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="38"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="40">
+      <c r="B73" s="41">
         <v>42635</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="26">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="38"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="40"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="40"/>
-      <c r="C74" s="39"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="38"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="40"/>
-      <c r="C75" s="39"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="38"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="40"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
+      <c r="B76" s="41">
         <v>42636</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="26">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="38"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="40"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="38"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="40"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="38"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="40"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="40">
+      <c r="B79" s="41">
         <v>42637</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="26">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="38"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="40"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="40"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="38"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="40"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="40"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="38"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="40"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="40">
+      <c r="B82" s="41">
         <v>42638</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="26">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="38"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="40"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="40"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="38"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="40"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="38"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="40"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="40">
+      <c r="B85" s="41">
         <v>42639</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="26">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="38"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="40"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="40"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="38"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="40"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="40"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="38"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="40"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="40">
+      <c r="B88" s="41">
         <v>42640</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="26">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="38"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="40"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="40"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="38"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="40"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="40"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="38"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="40"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="40">
+      <c r="B91" s="41">
         <v>42641</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="26">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="38"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="40"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="40"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="38"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="40"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="40"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="38"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="40"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="40">
+      <c r="B94" s="41">
         <v>42642</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="26">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="38"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="40"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="40"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="38"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="40"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="40"/>
-      <c r="C96" s="39"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="38"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="40"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="40">
+      <c r="B97" s="41">
         <v>42643</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="26">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="38"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="40"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="40"/>
-      <c r="C98" s="39"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="38"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="40"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="40"/>
-      <c r="C99" s="39"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="38"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4850,166 +4961,77 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>萝卜、笋瓜、大蒜、糖11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜、黄瓜、白菜、苦瓜16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,26 +847,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -869,6 +937,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,75 +956,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,24 +1291,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1312,12 +1320,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,31 +1349,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>42590</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <v>6.2</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1381,19 +1389,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1407,17 +1415,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1431,278 +1439,278 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>42591</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="62"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="60"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="40"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="40"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="38"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>42592</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="39">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="38">
         <v>47.3</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="40"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="40"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>42593</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="39">
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="38">
         <v>22.5</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="40"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="40"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>42594</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="39">
         <v>5</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="44">
         <v>21.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="43"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="44"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
@@ -1714,61 +1722,61 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="41">
+      <c r="B21" s="40">
         <v>42595</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="39">
         <v>6</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="45">
+      <c r="B24" s="47">
         <v>42596</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>7</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="22" t="s">
         <v>32</v>
       </c>
@@ -1780,970 +1788,970 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="38">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="33" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="40"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="33" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="40"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="33" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="40"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="33" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="40"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="27" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="40"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="27" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="40"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="41">
+      <c r="B33" s="40">
         <v>42597</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="39">
         <v>8</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="41"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="40"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="41">
+      <c r="B36" s="40">
         <v>42598</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="39">
         <v>9</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="J36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="38">
         <v>36.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="41"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="40"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="40"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="40"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="41">
+      <c r="B40" s="40">
         <v>42599</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="39">
         <v>10</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="38">
         <v>36.5</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="27" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="40"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="40"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>42600</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="39">
         <v>11</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="38">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>42601</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="39">
         <v>12</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="41"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>42602</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="39">
         <v>13</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30" t="s">
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="J49" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="38">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="41"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="41">
+      <c r="B52" s="40">
         <v>42603</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="39">
         <v>14</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30" t="s">
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="J52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="40">
+      <c r="K52" s="38">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27" t="s">
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="40"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27" t="s">
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="40"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="41">
+      <c r="B55" s="40">
         <v>42604</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="39">
         <v>15</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30" t="s">
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="30" t="s">
+      <c r="J55" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K55" s="40">
+      <c r="K55" s="38">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="40"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+      <c r="B58" s="40">
         <v>42605</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="39">
         <v>16</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="30" t="s">
+      <c r="J58" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K58" s="40">
+      <c r="K58" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27" t="s">
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="40"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="41">
+      <c r="B61" s="40">
         <v>42606</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="39">
         <v>17</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30" t="s">
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="30" t="s">
+      <c r="J61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K61" s="40">
+      <c r="K61" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="41">
+      <c r="B64" s="40">
         <v>42607</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="39">
         <v>18</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30" t="s">
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="30" t="s">
+      <c r="J64" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="40">
+      <c r="K64" s="38">
         <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27" t="s">
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="40"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="41">
+      <c r="B67" s="40">
         <v>42608</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="39">
         <v>19</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="40"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="41"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="41">
+      <c r="B70" s="40">
         <v>42609</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="39">
         <v>20</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30" t="s">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J70" s="30" t="s">
+      <c r="J70" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K70" s="40">
+      <c r="K70" s="38">
         <v>12.9</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="41"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="41">
+      <c r="B73" s="40">
         <v>42610</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="39">
         <v>21</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30" t="s">
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="30" t="s">
+      <c r="J73" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="38">
         <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="40"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B76" s="41">
+      <c r="B76" s="40">
         <v>42611</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="39">
         <v>22</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J76" s="30" t="s">
+      <c r="J76" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="40">
+      <c r="K76" s="38">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="41"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="27" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="40"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
       <c r="M77" s="21"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="41"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B79" s="45">
+      <c r="B79" s="47">
         <v>42612</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="29">
         <v>23</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30" t="s">
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J79" s="30" t="s">
+      <c r="J79" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K79" s="40">
+      <c r="K79" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="46"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27" t="s">
+      <c r="B80" s="48"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="40"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="46"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="40"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="47"/>
-      <c r="C82" s="32"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="56"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
         <v>41</v>
@@ -2753,168 +2761,386 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="41">
+      <c r="B83" s="40">
         <v>42613</v>
       </c>
-      <c r="C83" s="26">
+      <c r="C83" s="39">
         <v>24</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="26" t="s">
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="26" t="s">
+      <c r="J83" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="40">
+      <c r="K83" s="38">
         <v>40</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="28" t="s">
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="40"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="41"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="28" t="s">
+      <c r="B85" s="40"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="40"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="30" t="s">
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="31" t="s">
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K86" s="42">
+      <c r="K86" s="44">
         <v>89.5</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="27" t="s">
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="43"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="41"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="27" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="43"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="45"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="27" t="s">
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="43"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="45"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="41"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="27" t="s">
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="43"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="41"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="27" t="s">
+      <c r="B91" s="40"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="43"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="41"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="27" t="s">
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="44"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="46"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="242">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B24:B32"/>
+    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="K25:K32"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="I86:I92"/>
+    <mergeCell ref="J86:J92"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="K86:K92"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D92"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
     <mergeCell ref="E80:H80"/>
     <mergeCell ref="E81:H81"/>
     <mergeCell ref="I64:I66"/>
@@ -2939,224 +3165,6 @@
     <mergeCell ref="E72:H72"/>
     <mergeCell ref="J79:J81"/>
     <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B24:B32"/>
-    <mergeCell ref="C24:C32"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="K25:K32"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
@@ -3183,7 +3191,7 @@
   <dimension ref="B2:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43:K45"/>
+      <selection activeCell="K46" sqref="K46:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3200,24 +3208,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="57" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="M2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3229,12 +3237,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3258,31 +3266,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>42614</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="39">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <v>20</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="38">
         <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
@@ -3294,23 +3302,23 @@
       </c>
       <c r="P4" s="5">
         <f>O7-O4</f>
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="18" t="s">
         <v>15</v>
       </c>
@@ -3320,418 +3328,418 @@
       </c>
       <c r="P5" s="5">
         <f>O7-O5</f>
-        <v>222.5</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="41"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="17">
         <f>SUMPRODUCT((I4:I99="邹逍")*K4:K99)</f>
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="P6" s="5">
         <f>O7-O6</f>
-        <v>-316.5</v>
+        <v>-334.5</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>42615</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="39">
         <v>2</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="38">
         <v>40</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="61">
+      <c r="O7" s="36">
         <f>AVERAGE(O4:O6)</f>
-        <v>261.5</v>
-      </c>
-      <c r="P7" s="62"/>
+        <v>270.5</v>
+      </c>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="38"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="59">
+      <c r="O8" s="34">
         <f>SUM(O4:O6)</f>
-        <v>784.5</v>
-      </c>
-      <c r="P8" s="60"/>
+        <v>811.5</v>
+      </c>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="41"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="40"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>42616</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="39">
         <v>3</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="38">
         <v>167.5</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="27" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="40"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="27" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="40"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="27" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="40"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="41"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="27" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="40"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="27" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="40"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="41"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="40"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="27" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="40"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="40"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>42617</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="39">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30" t="s">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="40"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="40"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="41">
+      <c r="B22" s="40">
         <v>42618</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="39">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="44">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="43"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="41"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="44"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>42619</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="39">
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="38">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="40"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="40"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>42620</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <v>7</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3748,1195 +3756,1120 @@
       <c r="K28" s="19"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="41"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="38">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="41"/>
-      <c r="C30" s="31"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="40"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="41">
+      <c r="B31" s="40">
         <v>42621</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="39">
         <v>8</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="41"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="40"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="41"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="40"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="41">
+      <c r="B34" s="40">
         <v>42622</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="39">
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="38">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="41"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="40"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="41"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="41">
+      <c r="B37" s="40">
         <v>42623</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="39">
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30" t="s">
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="J37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="38">
         <v>267</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="41"/>
-      <c r="C38" s="26"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="40"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="41"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="40"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="41">
+      <c r="B40" s="40">
         <v>42624</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="39">
         <v>11</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30" t="s">
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="38">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="41"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="40"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="41"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="40"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>42625</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="39">
         <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30" t="s">
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="30" t="s">
+      <c r="J43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="41"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="40"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="41"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="40"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>42626</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="39">
         <v>13</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="40"/>
+      <c r="D46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="38">
+        <v>27</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="41"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="41"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="40"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>42627</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="39">
         <v>14</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="40"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="41"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="40"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="41"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="40"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="41">
+      <c r="B52" s="40">
         <v>42628</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="39">
         <v>15</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="40"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="40"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="41"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="40"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="41">
+      <c r="B55" s="40">
         <v>42629</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="39">
         <v>16</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="40"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="41"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="39"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="40"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="41"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="39"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="40"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+      <c r="B58" s="40">
         <v>42630</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="39">
         <v>17</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="40"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="38"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="41"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="39"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="40"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="41"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="40"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="38"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="41">
+      <c r="B61" s="40">
         <v>42631</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="39">
         <v>18</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="40"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
-      <c r="C62" s="26"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="40"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="41"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="40"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="41">
+      <c r="B64" s="40">
         <v>42632</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="39">
         <v>19</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="40"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="41"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="40"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="41"/>
-      <c r="C66" s="26"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="40"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="41">
+      <c r="B67" s="40">
         <v>42633</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="39">
         <v>20</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="40"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="38"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="41"/>
-      <c r="C68" s="26"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="7"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="40"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="38"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="41"/>
-      <c r="C69" s="26"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="7"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="40"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="41">
+      <c r="B70" s="40">
         <v>42634</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="39">
         <v>21</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="40"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="41"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="7"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="40"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="41"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="40"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="38"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="41">
+      <c r="B73" s="40">
         <v>42635</v>
       </c>
-      <c r="C73" s="26">
+      <c r="C73" s="39">
         <v>22</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="40"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="41"/>
-      <c r="C74" s="26"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="7"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="40"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="41"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="7"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="40"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="41">
+      <c r="B76" s="40">
         <v>42636</v>
       </c>
-      <c r="C76" s="26">
+      <c r="C76" s="39">
         <v>23</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="40"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="41"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="40"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="41"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="7"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="40"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="38"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="41">
+      <c r="B79" s="40">
         <v>42637</v>
       </c>
-      <c r="C79" s="26">
+      <c r="C79" s="39">
         <v>24</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="40"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="41"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="7"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="40"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="41"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="7"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="40"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="41">
+      <c r="B82" s="40">
         <v>42638</v>
       </c>
-      <c r="C82" s="26">
+      <c r="C82" s="39">
         <v>25</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="40"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="38"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="41"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="7"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="40"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="41"/>
-      <c r="C84" s="26"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="40"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="41">
+      <c r="B85" s="40">
         <v>42639</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="39">
         <v>26</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="40"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="41"/>
-      <c r="C86" s="26"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="40"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="38"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="41"/>
-      <c r="C87" s="26"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="39"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="40"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="41">
+      <c r="B88" s="40">
         <v>42640</v>
       </c>
-      <c r="C88" s="26">
+      <c r="C88" s="39">
         <v>27</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="40"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="41"/>
-      <c r="C89" s="26"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="40"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="38"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="41"/>
-      <c r="C90" s="26"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="40"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="41">
+      <c r="B91" s="40">
         <v>42641</v>
       </c>
-      <c r="C91" s="26">
+      <c r="C91" s="39">
         <v>28</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="40"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="38"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="41"/>
-      <c r="C92" s="26"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="40"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="38"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="41"/>
-      <c r="C93" s="26"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="40"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="41">
+      <c r="B94" s="40">
         <v>42642</v>
       </c>
-      <c r="C94" s="26">
+      <c r="C94" s="39">
         <v>29</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="40"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B95" s="41"/>
-      <c r="C95" s="26"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="40"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="38"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B96" s="41"/>
-      <c r="C96" s="26"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="40"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="38"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="41">
+      <c r="B97" s="40">
         <v>42643</v>
       </c>
-      <c r="C97" s="26">
+      <c r="C97" s="39">
         <v>30</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="40"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="38"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="41"/>
-      <c r="C98" s="26"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="40"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="38"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="41"/>
-      <c r="C99" s="26"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="40"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="E97:H97"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="E94:H94"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="E95:H95"/>
-    <mergeCell ref="E96:H96"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="E91:H91"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="E92:H92"/>
-    <mergeCell ref="E93:H93"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="E89:H89"/>
-    <mergeCell ref="E90:H90"/>
-    <mergeCell ref="E88:H88"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="E83:H83"/>
-    <mergeCell ref="E84:H84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="E85:H85"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="E86:H86"/>
-    <mergeCell ref="E87:H87"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:H76"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="K79:K81"/>
-    <mergeCell ref="E80:H80"/>
-    <mergeCell ref="E81:H81"/>
-    <mergeCell ref="J76:J78"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="E77:H77"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="E79:H79"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="J79:J81"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="E68:H68"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="E64:H64"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="E65:H65"/>
-    <mergeCell ref="E66:H66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="E67:H67"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="E62:H62"/>
-    <mergeCell ref="E63:H63"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="E50:H50"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:I18"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="K10:K18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="B37:B39"/>
@@ -4961,77 +4894,166 @@
     <mergeCell ref="K37:K39"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="E39:H39"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:I18"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:K18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="E66:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="E70:H70"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="K79:K81"/>
+    <mergeCell ref="E80:H80"/>
+    <mergeCell ref="E81:H81"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="E77:H77"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="E79:H79"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="E83:H83"/>
+    <mergeCell ref="E84:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="E91:H91"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="E92:H92"/>
+    <mergeCell ref="E93:H93"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="E89:H89"/>
+    <mergeCell ref="E90:H90"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="E97:H97"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:H94"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="E95:H95"/>
+    <mergeCell ref="E96:H96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/Document/生活/生活开支.xlsx
+++ b/Document/生活/生活开支.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="139">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,14 @@
   </si>
   <si>
     <t>胡萝卜、黄瓜、白菜、苦瓜16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面、蚊香15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,6 +855,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -865,6 +876,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,81 +964,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,24 +1299,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="M2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1320,12 +1328,12 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1349,31 +1357,31 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>42590</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="40">
         <v>6.2</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="40">
         <v>8</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1389,19 +1397,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1415,17 +1423,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1439,278 +1447,278 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="B7" s="41">
         <v>42591</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="26">
         <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="40">
         <v>69</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="36">
+      <c r="O7" s="61">
         <f>AVERAGE(O4:O6)</f>
         <v>456.26666666666665</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="38"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="40"/>
       <c r="M8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="34">
+      <c r="O8" s="59">
         <f>SUM(O4:O6)</f>
         <v>1368.8</v>
       </c>
-      <c r="P8" s="35"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="40"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="40"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="40">
+      <c r="B11" s="41">
         <v>42592</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="26">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30" t="s">
         <v>32</v>
       